--- a/project/wildcat-project-loreto-cornidez-alan-manuel.xlsx
+++ b/project/wildcat-project-loreto-cornidez-alan-manuel.xlsx
@@ -653,9 +653,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>532080</xdr:colOff>
+      <xdr:colOff>531720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -665,7 +665,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1122480" y="219240"/>
-          <a:ext cx="6755400" cy="5707800"/>
+          <a:ext cx="6755040" cy="5707440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1579,14 +1579,14 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="22.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="0" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="4" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="4" width="9.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="10.28"/>
   </cols>
   <sheetData>

--- a/project/wildcat-project-loreto-cornidez-alan-manuel.xlsx
+++ b/project/wildcat-project-loreto-cornidez-alan-manuel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="Balance Sheet" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" name="PPU" vbProcedure="false">'Sales Sheet'!$C$21</definedName>
     <definedName function="false" hidden="false" name="Starting_Sales" vbProcedure="false">'Sales Sheet'!$B$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,96 +28,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="101">
   <si>
     <t xml:space="preserve">fall 20</t>
   </si>
   <si>
+    <t xml:space="preserve">Sales / Manufacturing / Inventory Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting Sales:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting Month:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  New Product (units)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Revenue New Product ($s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cost New Product ($s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturing Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  New Product (Units)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  New Product ($s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Price per unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost per unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Growth Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per month beginning May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating expense Growth Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OEGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per month beginning March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating Expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company Funds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of Receivables collected in 30 days:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of Payables paid in 30 days:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPAY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spring 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales / Manufacturing / Inventory Forecast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starting Sales:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starting Month:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales Forecast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  New Product (units)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Revenue New Product ($s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Cost New Product ($s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturing Forecast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  New Product (Units)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  New Product ($s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales Price per unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost per unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales Growth Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operating expense Growth Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OEGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operating Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% of Receivables collected in 30 days:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% of Payables paid in 30 days:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPAY</t>
   </si>
   <si>
     <t xml:space="preserve">Spring 22</t>
@@ -330,7 +337,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
@@ -338,10 +345,11 @@
     <numFmt numFmtId="168" formatCode="_(#.##0_);\(#.##0\);\-_)_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(#._);\(#.#0\);\-_)_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="\$#,##0"/>
-    <numFmt numFmtId="171" formatCode="_(#.#0_);\(#.#0\);\-_)_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="172" formatCode="0.00%"/>
     <numFmt numFmtId="173" formatCode="0.0%"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="_(#.#0_);\(#.#0\);\-_)_);_(@_)"/>
+    <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -513,7 +521,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -614,6 +622,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -622,11 +634,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -653,9 +669,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -664,8 +680,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1122480" y="219240"/>
-          <a:ext cx="6755040" cy="5707440"/>
+          <a:off x="1205640" y="219240"/>
+          <a:ext cx="7669800" cy="5707080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -714,7 +730,7 @@
             <a:t>SIE 265 Projects- grading:</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -724,7 +740,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -747,7 +763,7 @@
             <a:t> – Flexibility means that when you change one parameter, or cell value, it will ripple through the Excel model, i.e. linked cells.  This is important for making parameter changes simple and accurate, and for success in later projects.  Your Sales Sheet is one of the main input parameter locations for the model, so make sure it is built to be dynamic/flexible.  </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -757,7 +773,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -780,7 +796,7 @@
             <a:t> – You will find that Excel has many useful pre-existing formulas for your model [=sum(), =pmt(), =nominal(), =max(), etc…].  It is recommended that you become familiar with these as the semester progresses, they are very useful shortcuts/timesavers.  In many cases you won’t use pre-existing formulas, you will make your own [e.g. =f4*(1-$b$2)].  These different formula types are how you show your work.  The correct value is important, but it has to come from a formula of some sort, with the exception of input parameters/cells. </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -790,7 +806,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -813,7 +829,7 @@
             <a:t> – Correctness/accuracy is important however you will find throughout the entire project that one small mistake can ripple through your entire model (e.g. inputting an incorrect interest rate), making all the values incorrect.  This is one reason that we look at the formulas in addition to the values.   </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -823,7 +839,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -846,7 +862,7 @@
             <a:t> – As you will find in your instructions for this project, you must use the accounting format for every cell that has dollars as its unit, and the percentage format for all unitless cells.  Additionally, all dollar cells should be rounded to the nearest whole dollar, with the exception of rates (e.g. cost per unit sold), these should be shown to the hundredths, or nearest cent. Lastly, do not show the dollar symbol in your cells.  You can change this option when you have the ‘format cell’ window open.</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -856,7 +872,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -879,7 +895,7 @@
             <a:t> – This will be pretty simple for the first few projects if you use the provided Wildcat Project Template.  As you add more sheets to your model you will have to create and organize its appearance.  This will be part of the grade for that given sheet.  It is expected to be easy to read and follow, as though you were going to present it to your boss. </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -889,7 +905,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -912,7 +928,7 @@
             <a:t> – You must have this as of the completion of the second project.  This will become very important for later projects, it is an indicator that your model is in, or out of balance.  This will be graded by the correctness of the formula (accounting equation), and if it indicates a balanced model (all zero values).    </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -922,7 +938,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -943,7 +959,7 @@
       <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -976,10 +992,10 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="36.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="12.15"/>
@@ -987,14 +1003,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="4" width="10.28"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1010,7 +1035,7 @@
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
         <f aca="false">B10</f>
@@ -1030,7 +1055,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
         <f aca="false">B8</f>
@@ -1119,7 +1144,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="12" t="n">
         <v>45222</v>
@@ -1171,7 +1196,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1189,7 +1214,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="16" t="n">
         <v>0</v>
@@ -1201,37 +1226,46 @@
         <v>300</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>300</v>
+        <f aca="false">D10*(1+$C$23)</f>
+        <v>313.8</v>
       </c>
       <c r="F10" s="16" t="n">
-        <v>300</v>
+        <f aca="false">E10*(1+$C$23)</f>
+        <v>328.2348</v>
       </c>
       <c r="G10" s="16" t="n">
-        <v>300</v>
+        <f aca="false">F10*(1+$C$23)</f>
+        <v>343.3336008</v>
       </c>
       <c r="H10" s="16" t="n">
-        <v>300</v>
+        <f aca="false">G10*(1+$C$23)</f>
+        <v>359.1269464368</v>
       </c>
       <c r="I10" s="16" t="n">
-        <v>300</v>
+        <f aca="false">H10*(1+$C$23)</f>
+        <v>375.646785972893</v>
       </c>
       <c r="J10" s="16" t="n">
-        <v>300</v>
+        <f aca="false">I10*(1+$C$23)</f>
+        <v>392.926538127646</v>
       </c>
       <c r="K10" s="16" t="n">
-        <v>300</v>
+        <f aca="false">J10*(1+$C$23)</f>
+        <v>411.001158881518</v>
       </c>
       <c r="L10" s="16" t="n">
-        <v>300</v>
+        <f aca="false">K10*(1+$C$23)</f>
+        <v>429.907212190068</v>
       </c>
       <c r="M10" s="16" t="n">
-        <v>300</v>
+        <f aca="false">L10*(1+$C$23)</f>
+        <v>449.682943950811</v>
       </c>
       <c r="N10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="16" t="n">
         <f aca="false">$C$21*B10</f>
@@ -1243,49 +1277,49 @@
       </c>
       <c r="D11" s="16" t="n">
         <f aca="false">$C$21*D10</f>
-        <v>47997</v>
+        <v>49797</v>
       </c>
       <c r="E11" s="16" t="n">
         <f aca="false">$C$21*E10</f>
-        <v>47997</v>
+        <v>52087.662</v>
       </c>
       <c r="F11" s="16" t="n">
         <f aca="false">$C$21*F10</f>
-        <v>47997</v>
+        <v>54483.694452</v>
       </c>
       <c r="G11" s="16" t="n">
         <f aca="false">$C$21*G10</f>
-        <v>47997</v>
+        <v>56989.944396792</v>
       </c>
       <c r="H11" s="16" t="n">
         <f aca="false">$C$21*H10</f>
-        <v>47997</v>
+        <v>59611.4818390444</v>
       </c>
       <c r="I11" s="16" t="n">
         <f aca="false">$C$21*I10</f>
-        <v>47997</v>
+        <v>62353.6100036405</v>
       </c>
       <c r="J11" s="16" t="n">
         <f aca="false">$C$21*J10</f>
-        <v>47997</v>
+        <v>65221.876063808</v>
       </c>
       <c r="K11" s="16" t="n">
         <f aca="false">$C$21*K10</f>
-        <v>47997</v>
+        <v>68222.0823627431</v>
       </c>
       <c r="L11" s="16" t="n">
         <f aca="false">$C$21*L10</f>
-        <v>47997</v>
+        <v>71360.2981514293</v>
       </c>
       <c r="M11" s="16" t="n">
         <f aca="false">$C$21*M10</f>
-        <v>47997</v>
+        <v>74642.8718663951</v>
       </c>
       <c r="N11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="16" t="n">
         <f aca="false">$C$22*B10</f>
@@ -1297,43 +1331,43 @@
       </c>
       <c r="D12" s="16" t="n">
         <f aca="false">$C$22*D10</f>
-        <v>21450</v>
+        <v>22095</v>
       </c>
       <c r="E12" s="16" t="n">
         <f aca="false">$C$22*E10</f>
-        <v>21450</v>
+        <v>23111.37</v>
       </c>
       <c r="F12" s="16" t="n">
         <f aca="false">$C$22*F10</f>
-        <v>21450</v>
+        <v>24174.49302</v>
       </c>
       <c r="G12" s="16" t="n">
         <f aca="false">$C$22*G10</f>
-        <v>21450</v>
+        <v>25286.51969892</v>
       </c>
       <c r="H12" s="16" t="n">
         <f aca="false">$C$22*H10</f>
-        <v>21450</v>
+        <v>26449.6996050703</v>
       </c>
       <c r="I12" s="16" t="n">
         <f aca="false">$C$22*I10</f>
-        <v>21450</v>
+        <v>27666.3857869036</v>
       </c>
       <c r="J12" s="16" t="n">
         <f aca="false">$C$22*J10</f>
-        <v>21450</v>
+        <v>28939.0395331011</v>
       </c>
       <c r="K12" s="16" t="n">
         <f aca="false">$C$22*K10</f>
-        <v>21450</v>
+        <v>30270.2353516238</v>
       </c>
       <c r="L12" s="16" t="n">
         <f aca="false">$C$22*L10</f>
-        <v>21450</v>
+        <v>31662.6661777985</v>
       </c>
       <c r="M12" s="16" t="n">
         <f aca="false">$C$22*M10</f>
-        <v>21450</v>
+        <v>33119.1488219772</v>
       </c>
       <c r="N12" s="14"/>
     </row>
@@ -1355,7 +1389,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1373,20 +1407,42 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="C15" s="16" t="n">
+        <v>225</v>
+      </c>
+      <c r="D15" s="16" t="n">
+        <v>240</v>
+      </c>
+      <c r="E15" s="16" t="n">
+        <v>270</v>
+      </c>
+      <c r="F15" s="16" t="n">
+        <v>365</v>
+      </c>
+      <c r="G15" s="16" t="n">
+        <v>410</v>
+      </c>
+      <c r="H15" s="16" t="n">
+        <v>435</v>
+      </c>
+      <c r="I15" s="16" t="n">
+        <v>510</v>
+      </c>
+      <c r="J15" s="16" t="n">
+        <v>370</v>
+      </c>
+      <c r="K15" s="16" t="n">
+        <v>550</v>
+      </c>
+      <c r="L15" s="16" t="n">
+        <v>620</v>
+      </c>
+      <c r="M15" s="16" t="n">
+        <v>460</v>
+      </c>
       <c r="N15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,7 +1463,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1425,71 +1481,146 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="n">
+        <f aca="false">B15-B10</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="16" t="n">
+        <f aca="false">B18+C15-C10</f>
+        <v>225</v>
+      </c>
+      <c r="D18" s="16" t="n">
+        <f aca="false">C18+D15-D10</f>
+        <v>165</v>
+      </c>
+      <c r="E18" s="16" t="n">
+        <f aca="false">D18+E15-E10</f>
+        <v>121.2</v>
+      </c>
+      <c r="F18" s="16" t="n">
+        <f aca="false">E18+F15-F10</f>
+        <v>157.9652</v>
+      </c>
+      <c r="G18" s="16" t="n">
+        <f aca="false">F18+G15-G10</f>
+        <v>224.6315992</v>
+      </c>
+      <c r="H18" s="16" t="n">
+        <f aca="false">G18+H15-H10</f>
+        <v>300.5046527632</v>
+      </c>
+      <c r="I18" s="16" t="n">
+        <f aca="false">H18+I15-I10</f>
+        <v>434.857866790307</v>
+      </c>
+      <c r="J18" s="16" t="n">
+        <f aca="false">I18+J15-J10</f>
+        <v>411.931328662661</v>
+      </c>
+      <c r="K18" s="16" t="n">
+        <f aca="false">J18+K15-K10</f>
+        <v>550.930169781143</v>
+      </c>
+      <c r="L18" s="16" t="n">
+        <f aca="false">K18+L15-L10</f>
+        <v>741.022957591076</v>
+      </c>
+      <c r="M18" s="16" t="n">
+        <f aca="false">L18+M15-M10</f>
+        <v>751.340013640265</v>
+      </c>
       <c r="N18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="16" t="n">
+        <f aca="false">B18*$C$22</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="16" t="n">
+        <f aca="false">C18*$C$22</f>
+        <v>16571.25</v>
+      </c>
+      <c r="D19" s="16" t="n">
+        <f aca="false">D18*$C$22</f>
+        <v>12152.25</v>
+      </c>
+      <c r="E19" s="16" t="n">
+        <f aca="false">E18*$C$22</f>
+        <v>8926.38</v>
+      </c>
+      <c r="F19" s="16" t="n">
+        <f aca="false">F18*$C$22</f>
+        <v>11634.13698</v>
+      </c>
+      <c r="G19" s="16" t="n">
+        <f aca="false">G18*$C$22</f>
+        <v>16544.11728108</v>
+      </c>
+      <c r="H19" s="16" t="n">
+        <f aca="false">H18*$C$22</f>
+        <v>22132.1676760097</v>
+      </c>
+      <c r="I19" s="16" t="n">
+        <f aca="false">I18*$C$22</f>
+        <v>32027.2818891061</v>
+      </c>
+      <c r="J19" s="16" t="n">
+        <f aca="false">J18*$C$22</f>
+        <v>30338.742356005</v>
+      </c>
+      <c r="K19" s="16" t="n">
+        <f aca="false">K18*$C$22</f>
+        <v>40576.0070043812</v>
+      </c>
+      <c r="L19" s="16" t="n">
+        <f aca="false">L18*$C$22</f>
+        <v>54576.3408265827</v>
+      </c>
+      <c r="M19" s="16" t="n">
+        <f aca="false">M18*$C$22</f>
+        <v>55336.1920046055</v>
+      </c>
       <c r="N19" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="16" t="n">
-        <v>159.99</v>
+      <c r="C21" s="18" t="n">
+        <v>165.99</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>17</v>
-      </c>
       <c r="C22" s="18" t="n">
-        <v>71.5</v>
+        <v>73.65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="C23" s="20" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C23" s="20" t="n">
-        <v>0.04</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1502,35 +1633,38 @@
       <c r="C24" s="20" t="n">
         <v>0.018</v>
       </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="16" t="n">
-        <v>7000</v>
+        <v>24</v>
+      </c>
+      <c r="C25" s="18" t="n">
+        <v>9100</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="16" t="n">
-        <v>30000</v>
+        <v>26</v>
+      </c>
+      <c r="C26" s="18" t="n">
+        <v>40000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="20" t="n">
         <v>1</v>
@@ -1538,10 +1672,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="20" t="n">
         <v>1</v>
@@ -1549,12 +1683,12 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1576,13 +1710,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="22.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="4" width="10.19"/>
@@ -1590,449 +1724,462 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="10.28"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="B2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15"/>
-      <c r="B4" s="10" t="n">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15"/>
+      <c r="B3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D3" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E3" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F3" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G3" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H3" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I3" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J3" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K3" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="L4" s="10" t="n">
+      <c r="L3" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="M4" s="10" t="n">
+      <c r="M3" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12" t="n">
+      <c r="N3" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="n">
         <v>45222</v>
       </c>
-      <c r="C5" s="12" t="n">
-        <f aca="false">EDATE(B5,1)</f>
+      <c r="C4" s="12" t="n">
+        <f aca="false">EDATE(B4,1)</f>
         <v>45253</v>
       </c>
-      <c r="D5" s="12" t="n">
-        <f aca="false">EDATE(C5,1)</f>
+      <c r="D4" s="12" t="n">
+        <f aca="false">EDATE(C4,1)</f>
         <v>45283</v>
       </c>
-      <c r="E5" s="12" t="n">
-        <f aca="false">EDATE(D5,1)</f>
+      <c r="E4" s="12" t="n">
+        <f aca="false">EDATE(D4,1)</f>
         <v>45314</v>
       </c>
-      <c r="F5" s="12" t="n">
-        <f aca="false">EDATE(E5,1)</f>
+      <c r="F4" s="12" t="n">
+        <f aca="false">EDATE(E4,1)</f>
         <v>45345</v>
       </c>
-      <c r="G5" s="12" t="n">
-        <f aca="false">EDATE(F5,1)</f>
+      <c r="G4" s="12" t="n">
+        <f aca="false">EDATE(F4,1)</f>
         <v>45374</v>
       </c>
-      <c r="H5" s="12" t="n">
-        <f aca="false">EDATE(G5,1)</f>
+      <c r="H4" s="12" t="n">
+        <f aca="false">EDATE(G4,1)</f>
         <v>45405</v>
       </c>
-      <c r="I5" s="12" t="n">
-        <f aca="false">EDATE(H5,1)</f>
+      <c r="I4" s="12" t="n">
+        <f aca="false">EDATE(H4,1)</f>
         <v>45435</v>
       </c>
-      <c r="J5" s="12" t="n">
-        <f aca="false">EDATE(I5,1)</f>
+      <c r="J4" s="12" t="n">
+        <f aca="false">EDATE(I4,1)</f>
         <v>45466</v>
       </c>
-      <c r="K5" s="12" t="n">
-        <f aca="false">EDATE(J5,1)</f>
+      <c r="K4" s="12" t="n">
+        <f aca="false">EDATE(J4,1)</f>
         <v>45496</v>
       </c>
-      <c r="L5" s="12" t="n">
-        <f aca="false">EDATE(K5,1)</f>
+      <c r="L4" s="12" t="n">
+        <f aca="false">EDATE(K4,1)</f>
         <v>45527</v>
       </c>
-      <c r="M5" s="12" t="n">
-        <f aca="false">EDATE(L5,1)</f>
+      <c r="M4" s="12" t="n">
+        <f aca="false">EDATE(L4,1)</f>
         <v>45558</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>34</v>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="16" t="n">
+        <f aca="false">'Sales Sheet'!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <f aca="false">'Sales Sheet'!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <f aca="false">'Sales Sheet'!D11</f>
+        <v>49797</v>
+      </c>
+      <c r="E6" s="16" t="n">
+        <f aca="false">'Sales Sheet'!E11</f>
+        <v>52087.662</v>
+      </c>
+      <c r="F6" s="16" t="n">
+        <f aca="false">'Sales Sheet'!F11</f>
+        <v>54483.694452</v>
+      </c>
+      <c r="G6" s="16" t="n">
+        <f aca="false">'Sales Sheet'!G11</f>
+        <v>56989.944396792</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <f aca="false">'Sales Sheet'!H11</f>
+        <v>59611.4818390444</v>
+      </c>
+      <c r="I6" s="16" t="n">
+        <f aca="false">'Sales Sheet'!I11</f>
+        <v>62353.6100036405</v>
+      </c>
+      <c r="J6" s="16" t="n">
+        <f aca="false">'Sales Sheet'!J11</f>
+        <v>65221.876063808</v>
+      </c>
+      <c r="K6" s="16" t="n">
+        <f aca="false">'Sales Sheet'!K11</f>
+        <v>68222.0823627431</v>
+      </c>
+      <c r="L6" s="16" t="n">
+        <f aca="false">'Sales Sheet'!L11</f>
+        <v>71360.2981514293</v>
+      </c>
+      <c r="M6" s="16" t="n">
+        <f aca="false">'Sales Sheet'!M11</f>
+        <v>74642.8718663951</v>
+      </c>
+      <c r="N6" s="16" t="n">
+        <f aca="false">SUM(B6:M6)</f>
+        <v>614770.521135852</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" s="16" t="n">
-        <f aca="false">'Sales Sheet'!B11</f>
+        <f aca="false">B6</f>
         <v>0</v>
       </c>
       <c r="C7" s="16" t="n">
-        <f aca="false">'Sales Sheet'!C11</f>
+        <f aca="false">C6</f>
         <v>0</v>
       </c>
       <c r="D7" s="16" t="n">
-        <f aca="false">'Sales Sheet'!D11</f>
-        <v>47997</v>
+        <f aca="false">D6</f>
+        <v>49797</v>
       </c>
       <c r="E7" s="16" t="n">
-        <f aca="false">'Sales Sheet'!E11</f>
-        <v>47997</v>
+        <f aca="false">E6</f>
+        <v>52087.662</v>
       </c>
       <c r="F7" s="16" t="n">
-        <f aca="false">'Sales Sheet'!F11</f>
-        <v>47997</v>
+        <f aca="false">F6</f>
+        <v>54483.694452</v>
       </c>
       <c r="G7" s="16" t="n">
-        <f aca="false">'Sales Sheet'!G11</f>
-        <v>47997</v>
+        <f aca="false">G6</f>
+        <v>56989.944396792</v>
       </c>
       <c r="H7" s="16" t="n">
-        <f aca="false">'Sales Sheet'!H11</f>
-        <v>47997</v>
+        <f aca="false">H6</f>
+        <v>59611.4818390444</v>
       </c>
       <c r="I7" s="16" t="n">
-        <f aca="false">'Sales Sheet'!I11</f>
-        <v>47997</v>
+        <f aca="false">I6</f>
+        <v>62353.6100036405</v>
       </c>
       <c r="J7" s="16" t="n">
-        <f aca="false">'Sales Sheet'!J11</f>
-        <v>47997</v>
+        <f aca="false">J6</f>
+        <v>65221.876063808</v>
       </c>
       <c r="K7" s="16" t="n">
-        <f aca="false">'Sales Sheet'!K11</f>
-        <v>47997</v>
+        <f aca="false">K6</f>
+        <v>68222.0823627431</v>
       </c>
       <c r="L7" s="16" t="n">
-        <f aca="false">'Sales Sheet'!L11</f>
-        <v>47997</v>
+        <f aca="false">L6</f>
+        <v>71360.2981514293</v>
       </c>
       <c r="M7" s="16" t="n">
-        <f aca="false">'Sales Sheet'!M11</f>
-        <v>47997</v>
+        <f aca="false">M6</f>
+        <v>74642.8718663951</v>
       </c>
       <c r="N7" s="16" t="n">
         <f aca="false">SUM(B7:M7)</f>
-        <v>479970</v>
+        <v>614770.521135852</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" s="16" t="n">
-        <f aca="false">B7</f>
+        <f aca="false">'Sales Sheet'!B12</f>
         <v>0</v>
       </c>
       <c r="C8" s="16" t="n">
-        <f aca="false">C7</f>
+        <f aca="false">'Sales Sheet'!C12</f>
         <v>0</v>
       </c>
       <c r="D8" s="16" t="n">
-        <f aca="false">D7</f>
-        <v>47997</v>
+        <f aca="false">'Sales Sheet'!D12</f>
+        <v>22095</v>
       </c>
       <c r="E8" s="16" t="n">
-        <f aca="false">E7</f>
-        <v>47997</v>
+        <f aca="false">'Sales Sheet'!E12</f>
+        <v>23111.37</v>
       </c>
       <c r="F8" s="16" t="n">
-        <f aca="false">F7</f>
-        <v>47997</v>
+        <f aca="false">'Sales Sheet'!F12</f>
+        <v>24174.49302</v>
       </c>
       <c r="G8" s="16" t="n">
-        <f aca="false">G7</f>
-        <v>47997</v>
+        <f aca="false">'Sales Sheet'!G12</f>
+        <v>25286.51969892</v>
       </c>
       <c r="H8" s="16" t="n">
-        <f aca="false">H7</f>
-        <v>47997</v>
+        <f aca="false">'Sales Sheet'!H12</f>
+        <v>26449.6996050703</v>
       </c>
       <c r="I8" s="16" t="n">
-        <f aca="false">I7</f>
-        <v>47997</v>
+        <f aca="false">'Sales Sheet'!I12</f>
+        <v>27666.3857869036</v>
       </c>
       <c r="J8" s="16" t="n">
-        <f aca="false">J7</f>
-        <v>47997</v>
+        <f aca="false">'Sales Sheet'!J12</f>
+        <v>28939.0395331011</v>
       </c>
       <c r="K8" s="16" t="n">
-        <f aca="false">K7</f>
-        <v>47997</v>
+        <f aca="false">'Sales Sheet'!K12</f>
+        <v>30270.2353516238</v>
       </c>
       <c r="L8" s="16" t="n">
-        <f aca="false">L7</f>
-        <v>47997</v>
+        <f aca="false">'Sales Sheet'!L12</f>
+        <v>31662.6661777985</v>
       </c>
       <c r="M8" s="16" t="n">
-        <f aca="false">M7</f>
-        <v>47997</v>
+        <f aca="false">'Sales Sheet'!M12</f>
+        <v>33119.1488219772</v>
       </c>
       <c r="N8" s="16" t="n">
         <f aca="false">SUM(B8:M8)</f>
-        <v>479970</v>
+        <v>272774.557995395</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" s="16" t="n">
-        <f aca="false">'Sales Sheet'!B12</f>
+        <f aca="false">B7-B8</f>
         <v>0</v>
       </c>
       <c r="C9" s="16" t="n">
-        <f aca="false">'Sales Sheet'!C12</f>
+        <f aca="false">C7-C8</f>
         <v>0</v>
       </c>
       <c r="D9" s="16" t="n">
-        <f aca="false">'Sales Sheet'!D12</f>
-        <v>21450</v>
+        <f aca="false">D7-D8</f>
+        <v>27702</v>
       </c>
       <c r="E9" s="16" t="n">
-        <f aca="false">'Sales Sheet'!E12</f>
-        <v>21450</v>
+        <f aca="false">E7-E8</f>
+        <v>28976.292</v>
       </c>
       <c r="F9" s="16" t="n">
-        <f aca="false">'Sales Sheet'!F12</f>
-        <v>21450</v>
+        <f aca="false">F7-F8</f>
+        <v>30309.201432</v>
       </c>
       <c r="G9" s="16" t="n">
-        <f aca="false">'Sales Sheet'!G12</f>
-        <v>21450</v>
+        <f aca="false">G7-G8</f>
+        <v>31703.424697872</v>
       </c>
       <c r="H9" s="16" t="n">
-        <f aca="false">'Sales Sheet'!H12</f>
-        <v>21450</v>
+        <f aca="false">H7-H8</f>
+        <v>33161.7822339741</v>
       </c>
       <c r="I9" s="16" t="n">
-        <f aca="false">'Sales Sheet'!I12</f>
-        <v>21450</v>
+        <f aca="false">I7-I8</f>
+        <v>34687.2242167369</v>
       </c>
       <c r="J9" s="16" t="n">
-        <f aca="false">'Sales Sheet'!J12</f>
-        <v>21450</v>
+        <f aca="false">J7-J8</f>
+        <v>36282.8365307068</v>
       </c>
       <c r="K9" s="16" t="n">
-        <f aca="false">'Sales Sheet'!K12</f>
-        <v>21450</v>
+        <f aca="false">K7-K8</f>
+        <v>37951.8470111193</v>
       </c>
       <c r="L9" s="16" t="n">
-        <f aca="false">'Sales Sheet'!L12</f>
-        <v>21450</v>
+        <f aca="false">L7-L8</f>
+        <v>39697.6319736308</v>
       </c>
       <c r="M9" s="16" t="n">
-        <f aca="false">'Sales Sheet'!M12</f>
-        <v>21450</v>
+        <f aca="false">M7-M8</f>
+        <v>41523.7230444179</v>
       </c>
       <c r="N9" s="16" t="n">
-        <f aca="false">SUM(B9:M9)</f>
-        <v>214500</v>
+        <f aca="false">N7-N8</f>
+        <v>341995.963140458</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="16" t="n">
-        <f aca="false">B8-B9</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="16" t="n">
-        <f aca="false">C8-C9</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="16" t="n">
-        <f aca="false">D8-D9</f>
-        <v>26547</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <f aca="false">E8-E9</f>
-        <v>26547</v>
-      </c>
-      <c r="F10" s="16" t="n">
-        <f aca="false">F8-F9</f>
-        <v>26547</v>
-      </c>
-      <c r="G10" s="16" t="n">
-        <f aca="false">G8-G9</f>
-        <v>26547</v>
-      </c>
-      <c r="H10" s="16" t="n">
-        <f aca="false">H8-H9</f>
-        <v>26547</v>
-      </c>
-      <c r="I10" s="16" t="n">
-        <f aca="false">I8-I9</f>
-        <v>26547</v>
-      </c>
-      <c r="J10" s="16" t="n">
-        <f aca="false">J8-J9</f>
-        <v>26547</v>
-      </c>
-      <c r="K10" s="16" t="n">
-        <f aca="false">K8-K9</f>
-        <v>26547</v>
-      </c>
-      <c r="L10" s="16" t="n">
-        <f aca="false">L8-L9</f>
-        <v>26547</v>
-      </c>
-      <c r="M10" s="16" t="n">
-        <f aca="false">M8-M9</f>
-        <v>26547</v>
-      </c>
-      <c r="N10" s="16" t="n">
-        <f aca="false">N8-N9</f>
-        <v>265470</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="A11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="16" t="n">
+        <f aca="false">'Sales Sheet'!$C25</f>
+        <v>9100</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <f aca="false">B11*(1+'Sales Sheet'!$C$24)</f>
+        <v>9263.8</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <f aca="false">C11*(1+'Sales Sheet'!$C$24)</f>
+        <v>9430.5484</v>
+      </c>
+      <c r="E11" s="16" t="n">
+        <f aca="false">D11*(1+'Sales Sheet'!$C$24)</f>
+        <v>9600.2982712</v>
+      </c>
+      <c r="F11" s="16" t="n">
+        <f aca="false">E11*(1+'Sales Sheet'!$C$24)</f>
+        <v>9773.1036400816</v>
+      </c>
+      <c r="G11" s="16" t="n">
+        <f aca="false">F11*(1+'Sales Sheet'!$C$24)</f>
+        <v>9949.01950560307</v>
+      </c>
+      <c r="H11" s="16" t="n">
+        <f aca="false">G11*(1+'Sales Sheet'!$C$24)</f>
+        <v>10128.1018567039</v>
+      </c>
+      <c r="I11" s="16" t="n">
+        <f aca="false">H11*(1+'Sales Sheet'!$C$24)</f>
+        <v>10310.4076901246</v>
+      </c>
+      <c r="J11" s="16" t="n">
+        <f aca="false">I11*(1+'Sales Sheet'!$C$24)</f>
+        <v>10495.9950285468</v>
+      </c>
+      <c r="K11" s="16" t="n">
+        <f aca="false">J11*(1+'Sales Sheet'!$C$24)</f>
+        <v>10684.9229390607</v>
+      </c>
+      <c r="L11" s="16" t="n">
+        <f aca="false">K11*(1+'Sales Sheet'!$C$24)</f>
+        <v>10877.2515519638</v>
+      </c>
+      <c r="M11" s="16" t="n">
+        <f aca="false">L11*(1+'Sales Sheet'!$C$24)</f>
+        <v>11073.0420798991</v>
+      </c>
+      <c r="N11" s="16" t="n">
+        <f aca="false">SUM(B11:M11)</f>
+        <v>120686.490963184</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="16" t="n">
-        <f aca="false">'Sales Sheet'!$C25</f>
-        <v>7000</v>
-      </c>
-      <c r="C12" s="16" t="n">
-        <f aca="false">'Sales Sheet'!$C25</f>
-        <v>7000</v>
-      </c>
-      <c r="D12" s="16" t="n">
-        <f aca="false">'Sales Sheet'!$C25</f>
-        <v>7000</v>
-      </c>
-      <c r="E12" s="16" t="n">
-        <f aca="false">'Sales Sheet'!$C25</f>
-        <v>7000</v>
-      </c>
-      <c r="F12" s="16" t="n">
-        <f aca="false">'Sales Sheet'!$C25</f>
-        <v>7000</v>
-      </c>
-      <c r="G12" s="16" t="n">
-        <f aca="false">'Sales Sheet'!$C25</f>
-        <v>7000</v>
-      </c>
-      <c r="H12" s="16" t="n">
-        <f aca="false">'Sales Sheet'!$C25</f>
-        <v>7000</v>
-      </c>
-      <c r="I12" s="16" t="n">
-        <f aca="false">'Sales Sheet'!$C25</f>
-        <v>7000</v>
-      </c>
-      <c r="J12" s="16" t="n">
-        <f aca="false">'Sales Sheet'!$C25</f>
-        <v>7000</v>
-      </c>
-      <c r="K12" s="16" t="n">
-        <f aca="false">'Sales Sheet'!$C25</f>
-        <v>7000</v>
-      </c>
-      <c r="L12" s="16" t="n">
-        <f aca="false">'Sales Sheet'!$C25</f>
-        <v>7000</v>
-      </c>
-      <c r="M12" s="16" t="n">
-        <f aca="false">'Sales Sheet'!$C25</f>
-        <v>7000</v>
-      </c>
-      <c r="N12" s="16" t="n">
-        <f aca="false">SUM(B12:M12)</f>
-        <v>84000</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
+      <c r="A13" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -2049,7 +2196,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2067,7 +2214,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -2084,9 +2231,7 @@
       <c r="N15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -2102,186 +2247,276 @@
       <c r="N16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="A17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="16" t="n">
+        <f aca="false">B9-B11-B13-B14</f>
+        <v>-9100</v>
+      </c>
+      <c r="C17" s="16" t="n">
+        <f aca="false">C9-C11-C13-C14</f>
+        <v>-9263.8</v>
+      </c>
+      <c r="D17" s="16" t="n">
+        <f aca="false">D9-D11-D13-D14</f>
+        <v>18271.4516</v>
+      </c>
+      <c r="E17" s="16" t="n">
+        <f aca="false">E9-E11-E13-E14</f>
+        <v>19375.9937288</v>
+      </c>
+      <c r="F17" s="16" t="n">
+        <f aca="false">F9-F11-F13-F14</f>
+        <v>20536.0977919184</v>
+      </c>
+      <c r="G17" s="16" t="n">
+        <f aca="false">G9-G11-G13-G14</f>
+        <v>21754.4051922689</v>
+      </c>
+      <c r="H17" s="16" t="n">
+        <f aca="false">H9-H11-H13-H14</f>
+        <v>23033.6803772702</v>
+      </c>
+      <c r="I17" s="16" t="n">
+        <f aca="false">I9-I11-I13-I14</f>
+        <v>24376.8165266123</v>
+      </c>
+      <c r="J17" s="16" t="n">
+        <f aca="false">J9-J11-J13-J14</f>
+        <v>25786.84150216</v>
+      </c>
+      <c r="K17" s="16" t="n">
+        <f aca="false">K9-K11-K13-K14</f>
+        <v>27266.9240720587</v>
+      </c>
+      <c r="L17" s="16" t="n">
+        <f aca="false">L9-L11-L13-L14</f>
+        <v>28820.3804216671</v>
+      </c>
+      <c r="M17" s="16" t="n">
+        <f aca="false">M9-M11-M13-M14</f>
+        <v>30450.6809645187</v>
+      </c>
+      <c r="N17" s="16" t="n">
+        <f aca="false">N9-N11-N13-N14</f>
+        <v>221309.472177274</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="16" t="n">
-        <f aca="false">B10-B12-B14-B15</f>
-        <v>-7000</v>
-      </c>
-      <c r="C18" s="16" t="n">
-        <f aca="false">C10-C12-C14-C15</f>
-        <v>-7000</v>
-      </c>
-      <c r="D18" s="16" t="n">
-        <f aca="false">D10-D12-D14-D15</f>
-        <v>19547</v>
-      </c>
-      <c r="E18" s="16" t="n">
-        <f aca="false">E10-E12-E14-E15</f>
-        <v>19547</v>
-      </c>
-      <c r="F18" s="16" t="n">
-        <f aca="false">F10-F12-F14-F15</f>
-        <v>19547</v>
-      </c>
-      <c r="G18" s="16" t="n">
-        <f aca="false">G10-G12-G14-G15</f>
-        <v>19547</v>
-      </c>
-      <c r="H18" s="16" t="n">
-        <f aca="false">H10-H12-H14-H15</f>
-        <v>19547</v>
-      </c>
-      <c r="I18" s="16" t="n">
-        <f aca="false">I10-I12-I14-I15</f>
-        <v>19547</v>
-      </c>
-      <c r="J18" s="16" t="n">
-        <f aca="false">J10-J12-J14-J15</f>
-        <v>19547</v>
-      </c>
-      <c r="K18" s="16" t="n">
-        <f aca="false">K10-K12-K14-K15</f>
-        <v>19547</v>
-      </c>
-      <c r="L18" s="16" t="n">
-        <f aca="false">L10-L12-L14-L15</f>
-        <v>19547</v>
-      </c>
-      <c r="M18" s="16" t="n">
-        <f aca="false">M10-M12-M14-M15</f>
-        <v>19547</v>
-      </c>
-      <c r="N18" s="16" t="n">
-        <f aca="false">N10-N12-N14-N15</f>
-        <v>181470</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="16" t="n">
-        <f aca="false">B18-B19</f>
-        <v>-7000</v>
-      </c>
-      <c r="C20" s="16" t="n">
-        <f aca="false">C18-C19</f>
-        <v>-7000</v>
-      </c>
-      <c r="D20" s="16" t="n">
-        <f aca="false">D18-D19</f>
-        <v>19547</v>
-      </c>
-      <c r="E20" s="16" t="n">
-        <f aca="false">E18-E19</f>
-        <v>19547</v>
-      </c>
-      <c r="F20" s="16" t="n">
-        <f aca="false">F18-F19</f>
-        <v>19547</v>
-      </c>
-      <c r="G20" s="16" t="n">
-        <f aca="false">G18-G19</f>
-        <v>19547</v>
-      </c>
-      <c r="H20" s="16" t="n">
-        <f aca="false">H18-H19</f>
-        <v>19547</v>
-      </c>
-      <c r="I20" s="16" t="n">
-        <f aca="false">I18-I19</f>
-        <v>19547</v>
-      </c>
-      <c r="J20" s="16" t="n">
-        <f aca="false">J18-J19</f>
-        <v>19547</v>
-      </c>
-      <c r="K20" s="16" t="n">
-        <f aca="false">K18-K19</f>
-        <v>19547</v>
-      </c>
-      <c r="L20" s="16" t="n">
-        <f aca="false">L18-L19</f>
-        <v>19547</v>
-      </c>
-      <c r="M20" s="16" t="n">
-        <f aca="false">M18-M19</f>
-        <v>19547</v>
-      </c>
-      <c r="N20" s="16" t="n">
-        <f aca="false">N18-N19</f>
-        <v>181470</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="B19" s="16" t="n">
+        <f aca="false">B17-B18</f>
+        <v>-9100</v>
+      </c>
+      <c r="C19" s="16" t="n">
+        <f aca="false">C17-C18</f>
+        <v>-9263.8</v>
+      </c>
+      <c r="D19" s="16" t="n">
+        <f aca="false">D17-D18</f>
+        <v>18271.4516</v>
+      </c>
+      <c r="E19" s="16" t="n">
+        <f aca="false">E17-E18</f>
+        <v>19375.9937288</v>
+      </c>
+      <c r="F19" s="16" t="n">
+        <f aca="false">F17-F18</f>
+        <v>20536.0977919184</v>
+      </c>
+      <c r="G19" s="16" t="n">
+        <f aca="false">G17-G18</f>
+        <v>21754.4051922689</v>
+      </c>
+      <c r="H19" s="16" t="n">
+        <f aca="false">H17-H18</f>
+        <v>23033.6803772702</v>
+      </c>
+      <c r="I19" s="16" t="n">
+        <f aca="false">I17-I18</f>
+        <v>24376.8165266123</v>
+      </c>
+      <c r="J19" s="16" t="n">
+        <f aca="false">J17-J18</f>
+        <v>25786.84150216</v>
+      </c>
+      <c r="K19" s="16" t="n">
+        <f aca="false">K17-K18</f>
+        <v>27266.9240720587</v>
+      </c>
+      <c r="L19" s="16" t="n">
+        <f aca="false">L17-L18</f>
+        <v>28820.3804216671</v>
+      </c>
+      <c r="M19" s="16" t="n">
+        <f aca="false">M17-M18</f>
+        <v>30450.6809645187</v>
+      </c>
+      <c r="N19" s="16" t="n">
+        <f aca="false">N17-N18</f>
+        <v>221309.472177274</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="25" t="str">
+        <f aca="false">IF(B6=0, "N/A", B9/B7)</f>
+        <v>N/A</v>
+      </c>
+      <c r="C22" s="25" t="str">
+        <f aca="false">IF(C6=0, "N/A", C9/C7)</f>
+        <v>N/A</v>
+      </c>
+      <c r="D22" s="25" t="n">
+        <f aca="false">IF(D6=0, "N/A", D9/D7)</f>
+        <v>0.556298572203145</v>
+      </c>
+      <c r="E22" s="25" t="n">
+        <f aca="false">IF(E6=0, "N/A", E9/E7)</f>
+        <v>0.556298572203145</v>
+      </c>
+      <c r="F22" s="25" t="n">
+        <f aca="false">IF(F6=0, "N/A", F9/F7)</f>
+        <v>0.556298572203145</v>
+      </c>
+      <c r="G22" s="25" t="n">
+        <f aca="false">IF(G6=0, "N/A", G9/G7)</f>
+        <v>0.556298572203145</v>
+      </c>
+      <c r="H22" s="25" t="n">
+        <f aca="false">IF(H6=0, "N/A", H9/H7)</f>
+        <v>0.556298572203145</v>
+      </c>
+      <c r="I22" s="25" t="n">
+        <f aca="false">IF(I6=0, "N/A", I9/I7)</f>
+        <v>0.556298572203145</v>
+      </c>
+      <c r="J22" s="25" t="n">
+        <f aca="false">IF(J6=0, "N/A", J9/J7)</f>
+        <v>0.556298572203145</v>
+      </c>
+      <c r="K22" s="25" t="n">
+        <f aca="false">IF(K6=0, "N/A", K9/K7)</f>
+        <v>0.556298572203145</v>
+      </c>
+      <c r="L22" s="25" t="n">
+        <f aca="false">IF(L6=0, "N/A", L9/L7)</f>
+        <v>0.556298572203145</v>
+      </c>
+      <c r="M22" s="25" t="n">
+        <f aca="false">IF(M6=0, "N/A", M9/M7)</f>
+        <v>0.556298572203145</v>
+      </c>
+      <c r="N22" s="25" t="n">
+        <f aca="false">IF(N6=0, "N/A", N9/N7)</f>
+        <v>0.556298572203145</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B23" s="25" t="str">
+        <f aca="false">IF(B7=0, "N/A", B19/B7)</f>
+        <v>N/A</v>
+      </c>
+      <c r="C23" s="25" t="str">
+        <f aca="false">IF(C7=0, "N/A", C19/C7)</f>
+        <v>N/A</v>
+      </c>
+      <c r="D23" s="25" t="n">
+        <f aca="false">IF(D7=0, "N/A", D19/D7)</f>
+        <v>0.366918722011366</v>
+      </c>
+      <c r="E23" s="25" t="n">
+        <f aca="false">IF(E7=0, "N/A", E19/E7)</f>
+        <v>0.371988163507896</v>
+      </c>
+      <c r="F23" s="25" t="n">
+        <f aca="false">IF(F7=0, "N/A", F19/F7)</f>
+        <v>0.376921902937596</v>
+      </c>
+      <c r="G23" s="25" t="n">
+        <f aca="false">IF(G7=0, "N/A", G19/G7)</f>
+        <v>0.381723572860575</v>
+      </c>
+      <c r="H23" s="25" t="n">
+        <f aca="false">IF(H7=0, "N/A", H19/H7)</f>
+        <v>0.386396708598234</v>
+      </c>
+      <c r="I23" s="25" t="n">
+        <f aca="false">IF(I7=0, "N/A", I19/I7)</f>
+        <v>0.390944750836224</v>
+      </c>
+      <c r="J23" s="25" t="n">
+        <f aca="false">IF(J7=0, "N/A", J19/J7)</f>
+        <v>0.39537104815771</v>
+      </c>
+      <c r="K23" s="25" t="n">
+        <f aca="false">IF(K7=0, "N/A", K19/K7)</f>
+        <v>0.39967885950883</v>
+      </c>
+      <c r="L23" s="25" t="n">
+        <f aca="false">IF(L7=0, "N/A", L19/L7)</f>
+        <v>0.403871356598162</v>
+      </c>
+      <c r="M23" s="25" t="n">
+        <f aca="false">IF(M7=0, "N/A", M19/M7)</f>
+        <v>0.407951626231947</v>
+      </c>
+      <c r="N23" s="25" t="n">
+        <f aca="false">IF(N7=0, "N/A", N19/N7)</f>
+        <v>0.35998712457517</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
-        <v>47</v>
-      </c>
+      <c r="A24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24"/>
+      <c r="A25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2298,1219 +2533,1227 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="4" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="8" style="4" width="11.24"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="1" t="s">
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="26"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="10" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="22"/>
-    </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="25"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="n">
+      <c r="C3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D3" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E3" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F3" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G3" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H3" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I3" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J3" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K3" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="L4" s="10" t="n">
+      <c r="L3" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="M4" s="10" t="n">
+      <c r="M3" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12" t="n">
+      <c r="N3" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="n">
         <v>45222</v>
       </c>
-      <c r="C5" s="12" t="n">
-        <f aca="false">EDATE(B5,1)</f>
+      <c r="C4" s="12" t="n">
+        <f aca="false">EDATE(B4,1)</f>
         <v>45253</v>
       </c>
-      <c r="D5" s="12" t="n">
-        <f aca="false">EDATE(C5,1)</f>
+      <c r="D4" s="12" t="n">
+        <f aca="false">EDATE(C4,1)</f>
         <v>45283</v>
       </c>
-      <c r="E5" s="12" t="n">
-        <f aca="false">EDATE(D5,1)</f>
+      <c r="E4" s="12" t="n">
+        <f aca="false">EDATE(D4,1)</f>
         <v>45314</v>
       </c>
-      <c r="F5" s="12" t="n">
-        <f aca="false">EDATE(E5,1)</f>
+      <c r="F4" s="12" t="n">
+        <f aca="false">EDATE(E4,1)</f>
         <v>45345</v>
       </c>
-      <c r="G5" s="12" t="n">
-        <f aca="false">EDATE(F5,1)</f>
+      <c r="G4" s="12" t="n">
+        <f aca="false">EDATE(F4,1)</f>
         <v>45374</v>
       </c>
-      <c r="H5" s="12" t="n">
-        <f aca="false">EDATE(G5,1)</f>
+      <c r="H4" s="12" t="n">
+        <f aca="false">EDATE(G4,1)</f>
         <v>45405</v>
       </c>
-      <c r="I5" s="12" t="n">
-        <f aca="false">EDATE(H5,1)</f>
+      <c r="I4" s="12" t="n">
+        <f aca="false">EDATE(H4,1)</f>
         <v>45435</v>
       </c>
-      <c r="J5" s="12" t="n">
-        <f aca="false">EDATE(I5,1)</f>
+      <c r="J4" s="12" t="n">
+        <f aca="false">EDATE(I4,1)</f>
         <v>45466</v>
       </c>
-      <c r="K5" s="12" t="n">
-        <f aca="false">EDATE(J5,1)</f>
+      <c r="K4" s="12" t="n">
+        <f aca="false">EDATE(J4,1)</f>
         <v>45496</v>
       </c>
-      <c r="L5" s="12" t="n">
-        <f aca="false">EDATE(K5,1)</f>
+      <c r="L4" s="12" t="n">
+        <f aca="false">EDATE(K4,1)</f>
         <v>45527</v>
       </c>
-      <c r="M5" s="12" t="n">
-        <f aca="false">EDATE(L5,1)</f>
+      <c r="M4" s="12" t="n">
+        <f aca="false">EDATE(L4,1)</f>
         <v>45558</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>49</v>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="28" t="n">
+        <f aca="false">'Income Statement'!B19</f>
+        <v>-9100</v>
+      </c>
+      <c r="C6" s="28" t="n">
+        <f aca="false">'Income Statement'!C19</f>
+        <v>-9263.8</v>
+      </c>
+      <c r="D6" s="28" t="n">
+        <f aca="false">'Income Statement'!D19</f>
+        <v>18271.4516</v>
+      </c>
+      <c r="E6" s="28" t="n">
+        <f aca="false">'Income Statement'!E19</f>
+        <v>19375.9937288</v>
+      </c>
+      <c r="F6" s="28" t="n">
+        <f aca="false">'Income Statement'!F19</f>
+        <v>20536.0977919184</v>
+      </c>
+      <c r="G6" s="28" t="n">
+        <f aca="false">'Income Statement'!G19</f>
+        <v>21754.4051922689</v>
+      </c>
+      <c r="H6" s="28" t="n">
+        <f aca="false">'Income Statement'!H19</f>
+        <v>23033.6803772702</v>
+      </c>
+      <c r="I6" s="28" t="n">
+        <f aca="false">'Income Statement'!I19</f>
+        <v>24376.8165266123</v>
+      </c>
+      <c r="J6" s="28" t="n">
+        <f aca="false">'Income Statement'!J19</f>
+        <v>25786.84150216</v>
+      </c>
+      <c r="K6" s="28" t="n">
+        <f aca="false">'Income Statement'!K19</f>
+        <v>27266.9240720587</v>
+      </c>
+      <c r="L6" s="28" t="n">
+        <f aca="false">'Income Statement'!L19</f>
+        <v>28820.3804216671</v>
+      </c>
+      <c r="M6" s="28" t="n">
+        <f aca="false">'Income Statement'!M19</f>
+        <v>30450.6809645187</v>
+      </c>
+      <c r="N6" s="28" t="n">
+        <f aca="false">'Income Statement'!N19</f>
+        <v>221309.472177274</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="18" t="n">
-        <f aca="false">'Income Statement'!B20</f>
-        <v>-7000</v>
-      </c>
-      <c r="C7" s="18" t="n">
-        <f aca="false">'Income Statement'!C20</f>
-        <v>-7000</v>
-      </c>
-      <c r="D7" s="18" t="n">
-        <f aca="false">'Income Statement'!D20</f>
-        <v>19547</v>
-      </c>
-      <c r="E7" s="18" t="n">
-        <f aca="false">'Income Statement'!E20</f>
-        <v>19547</v>
-      </c>
-      <c r="F7" s="18" t="n">
-        <f aca="false">'Income Statement'!F20</f>
-        <v>19547</v>
-      </c>
-      <c r="G7" s="18" t="n">
-        <f aca="false">'Income Statement'!G20</f>
-        <v>19547</v>
-      </c>
-      <c r="H7" s="18" t="n">
-        <f aca="false">'Income Statement'!H20</f>
-        <v>19547</v>
-      </c>
-      <c r="I7" s="18" t="n">
-        <f aca="false">'Income Statement'!I20</f>
-        <v>19547</v>
-      </c>
-      <c r="J7" s="18" t="n">
-        <f aca="false">'Income Statement'!J20</f>
-        <v>19547</v>
-      </c>
-      <c r="K7" s="18" t="n">
-        <f aca="false">'Income Statement'!K20</f>
-        <v>19547</v>
-      </c>
-      <c r="L7" s="18" t="n">
-        <f aca="false">'Income Statement'!L20</f>
-        <v>19547</v>
-      </c>
-      <c r="M7" s="18" t="n">
-        <f aca="false">'Income Statement'!M20</f>
-        <v>19547</v>
-      </c>
-      <c r="N7" s="18" t="n">
-        <f aca="false">'Income Statement'!N20</f>
-        <v>181470</v>
-      </c>
+      <c r="A7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
+      <c r="A8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="28" t="n">
+        <f aca="false">SUM(B8:M8)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="18" t="n">
+        <v>55</v>
+      </c>
+      <c r="B9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="28" t="n">
         <f aca="false">SUM(B9:M9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="18" t="n">
+        <v>56</v>
+      </c>
+      <c r="B10" s="28" t="n">
+        <f aca="false">-'Balance Sheet'!B10</f>
+        <v>-0</v>
+      </c>
+      <c r="C10" s="28" t="n">
+        <f aca="false">-('Balance Sheet'!C10-'Balance Sheet'!B10)</f>
+        <v>-16571.25</v>
+      </c>
+      <c r="D10" s="28" t="n">
+        <f aca="false">-('Balance Sheet'!D10-'Balance Sheet'!C10)</f>
+        <v>4419</v>
+      </c>
+      <c r="E10" s="28" t="n">
+        <f aca="false">-('Balance Sheet'!E10-'Balance Sheet'!D10)</f>
+        <v>3225.87</v>
+      </c>
+      <c r="F10" s="28" t="n">
+        <f aca="false">-('Balance Sheet'!F10-'Balance Sheet'!E10)</f>
+        <v>-2707.75698</v>
+      </c>
+      <c r="G10" s="28" t="n">
+        <f aca="false">-('Balance Sheet'!G10-'Balance Sheet'!F10)</f>
+        <v>-4909.98030108</v>
+      </c>
+      <c r="H10" s="28" t="n">
+        <f aca="false">-('Balance Sheet'!H10-'Balance Sheet'!G10)</f>
+        <v>-5588.05039492968</v>
+      </c>
+      <c r="I10" s="28" t="n">
+        <f aca="false">-('Balance Sheet'!I10-'Balance Sheet'!H10)</f>
+        <v>-9895.11421309644</v>
+      </c>
+      <c r="J10" s="28" t="n">
+        <f aca="false">-('Balance Sheet'!J10-'Balance Sheet'!I10)</f>
+        <v>1688.53953310113</v>
+      </c>
+      <c r="K10" s="28" t="n">
+        <f aca="false">-('Balance Sheet'!K10-'Balance Sheet'!J10)</f>
+        <v>-10237.2646483762</v>
+      </c>
+      <c r="L10" s="28" t="n">
+        <f aca="false">-('Balance Sheet'!L10-'Balance Sheet'!K10)</f>
+        <v>-14000.3338222015</v>
+      </c>
+      <c r="M10" s="28" t="n">
+        <f aca="false">-('Balance Sheet'!M10-'Balance Sheet'!L10)</f>
+        <v>-759.851178022793</v>
+      </c>
+      <c r="N10" s="28" t="n">
         <f aca="false">SUM(B10:M10)</f>
-        <v>0</v>
+        <v>-55336.1920046055</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="18" t="n">
+        <v>57</v>
+      </c>
+      <c r="B11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="28" t="n">
         <f aca="false">SUM(B11:M11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="18" t="n">
+        <v>58</v>
+      </c>
+      <c r="B12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="28" t="n">
         <f aca="false">SUM(B12:M12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="18" t="n">
-        <f aca="false">SUM(B13:M13)</f>
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="B13" s="28" t="n">
+        <f aca="false">SUM(B6:B12)</f>
+        <v>-9100</v>
+      </c>
+      <c r="C13" s="28" t="n">
+        <f aca="false">SUM(C6:C12)</f>
+        <v>-25835.05</v>
+      </c>
+      <c r="D13" s="28" t="n">
+        <f aca="false">SUM(D6:D12)</f>
+        <v>22690.4516</v>
+      </c>
+      <c r="E13" s="28" t="n">
+        <f aca="false">SUM(E6:E12)</f>
+        <v>22601.8637288</v>
+      </c>
+      <c r="F13" s="28" t="n">
+        <f aca="false">SUM(F6:F12)</f>
+        <v>17828.3408119184</v>
+      </c>
+      <c r="G13" s="28" t="n">
+        <f aca="false">SUM(G6:G12)</f>
+        <v>16844.4248911889</v>
+      </c>
+      <c r="H13" s="28" t="n">
+        <f aca="false">SUM(H6:H12)</f>
+        <v>17445.6299823405</v>
+      </c>
+      <c r="I13" s="28" t="n">
+        <f aca="false">SUM(I6:I12)</f>
+        <v>14481.7023135159</v>
+      </c>
+      <c r="J13" s="28" t="n">
+        <f aca="false">SUM(J6:J12)</f>
+        <v>27475.3810352611</v>
+      </c>
+      <c r="K13" s="28" t="n">
+        <f aca="false">SUM(K6:K12)</f>
+        <v>17029.6594236824</v>
+      </c>
+      <c r="L13" s="28" t="n">
+        <f aca="false">SUM(L6:L12)</f>
+        <v>14820.0465994655</v>
+      </c>
+      <c r="M13" s="28" t="n">
+        <f aca="false">SUM(M6:M12)</f>
+        <v>29690.8297864959</v>
+      </c>
+      <c r="N13" s="28" t="n">
+        <f aca="false">SUM(N6:N12)</f>
+        <v>165973.280172669</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="18" t="n">
-        <f aca="false">SUM(B7:B13)</f>
-        <v>-7000</v>
-      </c>
-      <c r="C14" s="18" t="n">
-        <f aca="false">SUM(C7:C13)</f>
-        <v>-7000</v>
-      </c>
-      <c r="D14" s="18" t="n">
-        <f aca="false">SUM(D7:D13)</f>
-        <v>19547</v>
-      </c>
-      <c r="E14" s="18" t="n">
-        <f aca="false">SUM(E7:E13)</f>
-        <v>19547</v>
-      </c>
-      <c r="F14" s="18" t="n">
-        <f aca="false">SUM(F7:F13)</f>
-        <v>19547</v>
-      </c>
-      <c r="G14" s="18" t="n">
-        <f aca="false">SUM(G7:G13)</f>
-        <v>19547</v>
-      </c>
-      <c r="H14" s="18" t="n">
-        <f aca="false">SUM(H7:H13)</f>
-        <v>19547</v>
-      </c>
-      <c r="I14" s="18" t="n">
-        <f aca="false">SUM(I7:I13)</f>
-        <v>19547</v>
-      </c>
-      <c r="J14" s="18" t="n">
-        <f aca="false">SUM(J7:J13)</f>
-        <v>19547</v>
-      </c>
-      <c r="K14" s="18" t="n">
-        <f aca="false">SUM(K7:K13)</f>
-        <v>19547</v>
-      </c>
-      <c r="L14" s="18" t="n">
-        <f aca="false">SUM(L7:L13)</f>
-        <v>19547</v>
-      </c>
-      <c r="M14" s="18" t="n">
-        <f aca="false">SUM(M7:M13)</f>
-        <v>19547</v>
-      </c>
-      <c r="N14" s="18" t="n">
-        <f aca="false">SUM(N7:N13)</f>
-        <v>181470</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
+      <c r="A15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
+      <c r="A16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="18" t="n">
+        <v>62</v>
+      </c>
+      <c r="B17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="A18" s="15"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
+      <c r="A19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="28" t="n">
+        <f aca="false">B13+B17</f>
+        <v>-9100</v>
+      </c>
+      <c r="C19" s="28" t="n">
+        <f aca="false">C13+C17</f>
+        <v>-25835.05</v>
+      </c>
+      <c r="D19" s="28" t="n">
+        <f aca="false">D13+D17</f>
+        <v>22690.4516</v>
+      </c>
+      <c r="E19" s="28" t="n">
+        <f aca="false">E13+E17</f>
+        <v>22601.8637288</v>
+      </c>
+      <c r="F19" s="28" t="n">
+        <f aca="false">F13+F17</f>
+        <v>17828.3408119184</v>
+      </c>
+      <c r="G19" s="28" t="n">
+        <f aca="false">G13+G17</f>
+        <v>16844.4248911889</v>
+      </c>
+      <c r="H19" s="28" t="n">
+        <f aca="false">H13+H17</f>
+        <v>17445.6299823405</v>
+      </c>
+      <c r="I19" s="28" t="n">
+        <f aca="false">I13+I17</f>
+        <v>14481.7023135159</v>
+      </c>
+      <c r="J19" s="28" t="n">
+        <f aca="false">J13+J17</f>
+        <v>27475.3810352611</v>
+      </c>
+      <c r="K19" s="28" t="n">
+        <f aca="false">K13+K17</f>
+        <v>17029.6594236824</v>
+      </c>
+      <c r="L19" s="28" t="n">
+        <f aca="false">L13+L17</f>
+        <v>14820.0465994655</v>
+      </c>
+      <c r="M19" s="28" t="n">
+        <f aca="false">M13+M17</f>
+        <v>29690.8297864959</v>
+      </c>
+      <c r="N19" s="28" t="n">
+        <f aca="false">N13+N17</f>
+        <v>165973.280172669</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="18" t="n">
-        <f aca="false">B14+B18</f>
-        <v>-7000</v>
-      </c>
-      <c r="C20" s="18" t="n">
-        <f aca="false">C14+C18</f>
-        <v>-7000</v>
-      </c>
-      <c r="D20" s="18" t="n">
-        <f aca="false">D14+D18</f>
-        <v>19547</v>
-      </c>
-      <c r="E20" s="18" t="n">
-        <f aca="false">E14+E18</f>
-        <v>19547</v>
-      </c>
-      <c r="F20" s="18" t="n">
-        <f aca="false">F14+F18</f>
-        <v>19547</v>
-      </c>
-      <c r="G20" s="18" t="n">
-        <f aca="false">G14+G18</f>
-        <v>19547</v>
-      </c>
-      <c r="H20" s="18" t="n">
-        <f aca="false">H14+H18</f>
-        <v>19547</v>
-      </c>
-      <c r="I20" s="18" t="n">
-        <f aca="false">I14+I18</f>
-        <v>19547</v>
-      </c>
-      <c r="J20" s="18" t="n">
-        <f aca="false">J14+J18</f>
-        <v>19547</v>
-      </c>
-      <c r="K20" s="18" t="n">
-        <f aca="false">K14+K18</f>
-        <v>19547</v>
-      </c>
-      <c r="L20" s="18" t="n">
-        <f aca="false">L14+L18</f>
-        <v>19547</v>
-      </c>
-      <c r="M20" s="18" t="n">
-        <f aca="false">M14+M18</f>
-        <v>19547</v>
-      </c>
-      <c r="N20" s="18" t="n">
-        <f aca="false">N14+N18</f>
-        <v>181470</v>
-      </c>
+      <c r="A20" s="15"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
+      <c r="A21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
+      <c r="A22" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="28" t="n">
+        <f aca="false">'Sales Sheet'!C26</f>
+        <v>40000</v>
+      </c>
+      <c r="C22" s="28" t="n">
+        <f aca="false">'Sales Sheet'!D26</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="28" t="n">
+        <f aca="false">'Sales Sheet'!E26</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="28" t="n">
+        <f aca="false">'Sales Sheet'!F26</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="28" t="n">
+        <f aca="false">'Sales Sheet'!G26</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="28" t="n">
+        <f aca="false">'Sales Sheet'!H26</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="28" t="n">
+        <f aca="false">'Sales Sheet'!I26</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="28" t="n">
+        <f aca="false">'Sales Sheet'!J26</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="28" t="n">
+        <f aca="false">'Sales Sheet'!K26</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="28" t="n">
+        <f aca="false">'Sales Sheet'!L26</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="28" t="n">
+        <f aca="false">'Sales Sheet'!M26</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="28" t="n">
+        <f aca="false">'Sales Sheet'!N26</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="28" t="n">
+        <f aca="false">SUM(B22:M22)</f>
+        <v>40000</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="18" t="n">
-        <f aca="false">'Sales Sheet'!C26</f>
-        <v>30000</v>
-      </c>
-      <c r="C23" s="18" t="n">
-        <f aca="false">'Sales Sheet'!D26</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="18" t="n">
-        <f aca="false">'Sales Sheet'!E26</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="18" t="n">
-        <f aca="false">'Sales Sheet'!F26</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="18" t="n">
-        <f aca="false">'Sales Sheet'!G26</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="18" t="n">
-        <f aca="false">'Sales Sheet'!H26</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="18" t="n">
-        <f aca="false">'Sales Sheet'!I26</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="18" t="n">
-        <f aca="false">'Sales Sheet'!J26</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="18" t="n">
-        <f aca="false">'Sales Sheet'!K26</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="18" t="n">
-        <f aca="false">'Sales Sheet'!L26</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="18" t="n">
-        <f aca="false">'Sales Sheet'!M26</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="18" t="n">
-        <f aca="false">'Sales Sheet'!N26</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="18" t="n">
+        <v>66</v>
+      </c>
+      <c r="B23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="28" t="n">
         <f aca="false">SUM(B23:M23)</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="18" t="n">
+        <v>67</v>
+      </c>
+      <c r="B24" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="28" t="n">
         <f aca="false">SUM(B24:M24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="18" t="n">
+        <v>68</v>
+      </c>
+      <c r="B25" s="28" t="n">
+        <f aca="false">SUM(B22:B24)</f>
+        <v>40000</v>
+      </c>
+      <c r="C25" s="28" t="n">
+        <f aca="false">SUM(C22:C24)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="28" t="n">
+        <f aca="false">SUM(D22:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="28" t="n">
+        <f aca="false">SUM(E22:E24)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="28" t="n">
+        <f aca="false">SUM(F22:F24)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="28" t="n">
+        <f aca="false">SUM(G22:G24)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="28" t="n">
+        <f aca="false">SUM(H22:H24)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="28" t="n">
+        <f aca="false">SUM(I22:I24)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="28" t="n">
+        <f aca="false">SUM(J22:J24)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="28" t="n">
+        <f aca="false">SUM(K22:K24)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="28" t="n">
+        <f aca="false">SUM(L22:L24)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="28" t="n">
+        <f aca="false">SUM(M22:M24)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="28" t="n">
         <f aca="false">SUM(B25:M25)</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="18" t="n">
-        <f aca="false">SUM(B23:B25)</f>
-        <v>30000</v>
-      </c>
-      <c r="C26" s="18" t="n">
-        <f aca="false">SUM(C23:C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="18" t="n">
-        <f aca="false">SUM(D23:D25)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="18" t="n">
-        <f aca="false">SUM(E23:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="18" t="n">
-        <f aca="false">SUM(F23:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="18" t="n">
-        <f aca="false">SUM(G23:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="18" t="n">
-        <f aca="false">SUM(H23:H25)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="18" t="n">
-        <f aca="false">SUM(I23:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="18" t="n">
-        <f aca="false">SUM(J23:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="18" t="n">
-        <f aca="false">SUM(K23:K25)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="18" t="n">
-        <f aca="false">SUM(L23:L25)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="18" t="n">
-        <f aca="false">SUM(M23:M25)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="18" t="n">
-        <f aca="false">SUM(B26:M26)</f>
-        <v>30000</v>
-      </c>
+      <c r="A26" s="15"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
+      <c r="A27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="28" t="n">
+        <f aca="false">B19+B23+B24</f>
+        <v>-9100</v>
+      </c>
+      <c r="C27" s="28" t="n">
+        <f aca="false">C19+C23+C24</f>
+        <v>-25835.05</v>
+      </c>
+      <c r="D27" s="28" t="n">
+        <f aca="false">D19+D23+D24</f>
+        <v>22690.4516</v>
+      </c>
+      <c r="E27" s="28" t="n">
+        <f aca="false">E19+E23+E24</f>
+        <v>22601.8637288</v>
+      </c>
+      <c r="F27" s="28" t="n">
+        <f aca="false">F19+F23+F24</f>
+        <v>17828.3408119184</v>
+      </c>
+      <c r="G27" s="28" t="n">
+        <f aca="false">G19+G23+G24</f>
+        <v>16844.4248911889</v>
+      </c>
+      <c r="H27" s="28" t="n">
+        <f aca="false">H19+H23+H24</f>
+        <v>17445.6299823405</v>
+      </c>
+      <c r="I27" s="28" t="n">
+        <f aca="false">I19+I23+I24</f>
+        <v>14481.7023135159</v>
+      </c>
+      <c r="J27" s="28" t="n">
+        <f aca="false">J19+J23+J24</f>
+        <v>27475.3810352611</v>
+      </c>
+      <c r="K27" s="28" t="n">
+        <f aca="false">K19+K23+K24</f>
+        <v>17029.6594236824</v>
+      </c>
+      <c r="L27" s="28" t="n">
+        <f aca="false">L19+L23+L24</f>
+        <v>14820.0465994655</v>
+      </c>
+      <c r="M27" s="28" t="n">
+        <f aca="false">M19+M23+M24</f>
+        <v>29690.8297864959</v>
+      </c>
+      <c r="N27" s="28" t="n">
+        <f aca="false">N19+N23+N24</f>
+        <v>165973.280172669</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="18" t="n">
-        <f aca="false">B20+B24+B25</f>
-        <v>-7000</v>
-      </c>
-      <c r="C28" s="18" t="n">
-        <f aca="false">C20+C24+C25</f>
-        <v>-7000</v>
-      </c>
-      <c r="D28" s="18" t="n">
-        <f aca="false">D20+D24+D25</f>
-        <v>19547</v>
-      </c>
-      <c r="E28" s="18" t="n">
-        <f aca="false">E20+E24+E25</f>
-        <v>19547</v>
-      </c>
-      <c r="F28" s="18" t="n">
-        <f aca="false">F20+F24+F25</f>
-        <v>19547</v>
-      </c>
-      <c r="G28" s="18" t="n">
-        <f aca="false">G20+G24+G25</f>
-        <v>19547</v>
-      </c>
-      <c r="H28" s="18" t="n">
-        <f aca="false">H20+H24+H25</f>
-        <v>19547</v>
-      </c>
-      <c r="I28" s="18" t="n">
-        <f aca="false">I20+I24+I25</f>
-        <v>19547</v>
-      </c>
-      <c r="J28" s="18" t="n">
-        <f aca="false">J20+J24+J25</f>
-        <v>19547</v>
-      </c>
-      <c r="K28" s="18" t="n">
-        <f aca="false">K20+K24+K25</f>
-        <v>19547</v>
-      </c>
-      <c r="L28" s="18" t="n">
-        <f aca="false">L20+L24+L25</f>
-        <v>19547</v>
-      </c>
-      <c r="M28" s="18" t="n">
-        <f aca="false">M20+M24+M25</f>
-        <v>19547</v>
-      </c>
-      <c r="N28" s="18" t="n">
-        <f aca="false">N20+N24+N25</f>
-        <v>181470</v>
-      </c>
+      <c r="A28" s="15"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
+      <c r="A29" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="28" t="n">
+        <f aca="false">B31</f>
+        <v>30900</v>
+      </c>
+      <c r="D29" s="28" t="n">
+        <f aca="false">C31</f>
+        <v>5064.95</v>
+      </c>
+      <c r="E29" s="28" t="n">
+        <f aca="false">D31</f>
+        <v>27755.4016</v>
+      </c>
+      <c r="F29" s="28" t="n">
+        <f aca="false">E31</f>
+        <v>50357.2653288</v>
+      </c>
+      <c r="G29" s="28" t="n">
+        <f aca="false">F31</f>
+        <v>68185.6061407184</v>
+      </c>
+      <c r="H29" s="28" t="n">
+        <f aca="false">G31</f>
+        <v>85030.0310319073</v>
+      </c>
+      <c r="I29" s="28" t="n">
+        <f aca="false">H31</f>
+        <v>102475.661014248</v>
+      </c>
+      <c r="J29" s="28" t="n">
+        <f aca="false">I31</f>
+        <v>116957.363327764</v>
+      </c>
+      <c r="K29" s="28" t="n">
+        <f aca="false">J31</f>
+        <v>144432.744363025</v>
+      </c>
+      <c r="L29" s="28" t="n">
+        <f aca="false">K31</f>
+        <v>161462.403786707</v>
+      </c>
+      <c r="M29" s="28" t="n">
+        <f aca="false">L31</f>
+        <v>176282.450386173</v>
+      </c>
+      <c r="N29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="18" t="n">
-        <f aca="false">B32</f>
-        <v>23000</v>
-      </c>
-      <c r="D30" s="18" t="n">
-        <f aca="false">C32</f>
-        <v>16000</v>
-      </c>
-      <c r="E30" s="18" t="n">
-        <f aca="false">D32</f>
-        <v>35547</v>
-      </c>
-      <c r="F30" s="18" t="n">
-        <f aca="false">E32</f>
-        <v>55094</v>
-      </c>
-      <c r="G30" s="18" t="n">
-        <f aca="false">F32</f>
-        <v>74641</v>
-      </c>
-      <c r="H30" s="18" t="n">
-        <f aca="false">G32</f>
-        <v>94188</v>
-      </c>
-      <c r="I30" s="18" t="n">
-        <f aca="false">H32</f>
-        <v>113735</v>
-      </c>
-      <c r="J30" s="18" t="n">
-        <f aca="false">I32</f>
-        <v>133282</v>
-      </c>
-      <c r="K30" s="18" t="n">
-        <f aca="false">J32</f>
-        <v>152829</v>
-      </c>
-      <c r="L30" s="18" t="n">
-        <f aca="false">K32</f>
-        <v>172376</v>
-      </c>
-      <c r="M30" s="18" t="n">
-        <f aca="false">L32</f>
-        <v>191923</v>
-      </c>
-      <c r="N30" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="B30" s="28" t="n">
+        <f aca="false">B25+B19</f>
+        <v>30900</v>
+      </c>
+      <c r="C30" s="28" t="n">
+        <f aca="false">C25+C19</f>
+        <v>-25835.05</v>
+      </c>
+      <c r="D30" s="28" t="n">
+        <f aca="false">D25+D19</f>
+        <v>22690.4516</v>
+      </c>
+      <c r="E30" s="28" t="n">
+        <f aca="false">E25+E19</f>
+        <v>22601.8637288</v>
+      </c>
+      <c r="F30" s="28" t="n">
+        <f aca="false">F25+F19</f>
+        <v>17828.3408119184</v>
+      </c>
+      <c r="G30" s="28" t="n">
+        <f aca="false">G25+G19</f>
+        <v>16844.4248911889</v>
+      </c>
+      <c r="H30" s="28" t="n">
+        <f aca="false">H25+H19</f>
+        <v>17445.6299823405</v>
+      </c>
+      <c r="I30" s="28" t="n">
+        <f aca="false">I25+I19</f>
+        <v>14481.7023135159</v>
+      </c>
+      <c r="J30" s="28" t="n">
+        <f aca="false">J25+J19</f>
+        <v>27475.3810352611</v>
+      </c>
+      <c r="K30" s="28" t="n">
+        <f aca="false">K25+K19</f>
+        <v>17029.6594236824</v>
+      </c>
+      <c r="L30" s="28" t="n">
+        <f aca="false">L25+L19</f>
+        <v>14820.0465994655</v>
+      </c>
+      <c r="M30" s="28" t="n">
+        <f aca="false">M25+M19</f>
+        <v>29690.8297864959</v>
+      </c>
+      <c r="N30" s="28" t="n">
+        <f aca="false">SUM(B30:M30)</f>
+        <v>205973.280172669</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="18" t="n">
-        <f aca="false">B26+B20</f>
-        <v>23000</v>
-      </c>
-      <c r="C31" s="18" t="n">
-        <f aca="false">C26+C20</f>
-        <v>-7000</v>
-      </c>
-      <c r="D31" s="18" t="n">
-        <f aca="false">D26+D20</f>
-        <v>19547</v>
-      </c>
-      <c r="E31" s="18" t="n">
-        <f aca="false">E26+E20</f>
-        <v>19547</v>
-      </c>
-      <c r="F31" s="18" t="n">
-        <f aca="false">F26+F20</f>
-        <v>19547</v>
-      </c>
-      <c r="G31" s="18" t="n">
-        <f aca="false">G26+G20</f>
-        <v>19547</v>
-      </c>
-      <c r="H31" s="18" t="n">
-        <f aca="false">H26+H20</f>
-        <v>19547</v>
-      </c>
-      <c r="I31" s="18" t="n">
-        <f aca="false">I26+I20</f>
-        <v>19547</v>
-      </c>
-      <c r="J31" s="18" t="n">
-        <f aca="false">J26+J20</f>
-        <v>19547</v>
-      </c>
-      <c r="K31" s="18" t="n">
-        <f aca="false">K26+K20</f>
-        <v>19547</v>
-      </c>
-      <c r="L31" s="18" t="n">
-        <f aca="false">L26+L20</f>
-        <v>19547</v>
-      </c>
-      <c r="M31" s="18" t="n">
-        <f aca="false">M26+M20</f>
-        <v>19547</v>
-      </c>
-      <c r="N31" s="18" t="n">
-        <f aca="false">SUM(B31:M31)</f>
-        <v>211470</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="18" t="n">
-        <f aca="false">B31+B30</f>
-        <v>23000</v>
-      </c>
-      <c r="C32" s="18" t="n">
-        <f aca="false">C31+C30</f>
-        <v>16000</v>
-      </c>
-      <c r="D32" s="18" t="n">
-        <f aca="false">D31+D30</f>
-        <v>35547</v>
-      </c>
-      <c r="E32" s="18" t="n">
-        <f aca="false">E31+E30</f>
-        <v>55094</v>
-      </c>
-      <c r="F32" s="18" t="n">
-        <f aca="false">F31+F30</f>
-        <v>74641</v>
-      </c>
-      <c r="G32" s="18" t="n">
-        <f aca="false">G31+G30</f>
-        <v>94188</v>
-      </c>
-      <c r="H32" s="18" t="n">
-        <f aca="false">H31+H30</f>
-        <v>113735</v>
-      </c>
-      <c r="I32" s="18" t="n">
-        <f aca="false">I31+I30</f>
-        <v>133282</v>
-      </c>
-      <c r="J32" s="18" t="n">
-        <f aca="false">J31+J30</f>
-        <v>152829</v>
-      </c>
-      <c r="K32" s="18" t="n">
-        <f aca="false">K31+K30</f>
-        <v>172376</v>
-      </c>
-      <c r="L32" s="18" t="n">
-        <f aca="false">L31+L30</f>
-        <v>191923</v>
-      </c>
-      <c r="M32" s="18" t="n">
-        <f aca="false">M31+M30</f>
-        <v>211470</v>
-      </c>
-      <c r="N32" s="18" t="n">
-        <f aca="false">N30+N31</f>
-        <v>211470</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
+        <v>72</v>
+      </c>
+      <c r="B31" s="28" t="n">
+        <f aca="false">B30+B29</f>
+        <v>30900</v>
+      </c>
+      <c r="C31" s="28" t="n">
+        <f aca="false">C30+C29</f>
+        <v>5064.95</v>
+      </c>
+      <c r="D31" s="28" t="n">
+        <f aca="false">D30+D29</f>
+        <v>27755.4016</v>
+      </c>
+      <c r="E31" s="28" t="n">
+        <f aca="false">E30+E29</f>
+        <v>50357.2653288</v>
+      </c>
+      <c r="F31" s="28" t="n">
+        <f aca="false">F30+F29</f>
+        <v>68185.6061407184</v>
+      </c>
+      <c r="G31" s="28" t="n">
+        <f aca="false">G30+G29</f>
+        <v>85030.0310319073</v>
+      </c>
+      <c r="H31" s="28" t="n">
+        <f aca="false">H30+H29</f>
+        <v>102475.661014248</v>
+      </c>
+      <c r="I31" s="28" t="n">
+        <f aca="false">I30+I29</f>
+        <v>116957.363327764</v>
+      </c>
+      <c r="J31" s="28" t="n">
+        <f aca="false">J30+J29</f>
+        <v>144432.744363025</v>
+      </c>
+      <c r="K31" s="28" t="n">
+        <f aca="false">K30+K29</f>
+        <v>161462.403786707</v>
+      </c>
+      <c r="L31" s="28" t="n">
+        <f aca="false">L30+L29</f>
+        <v>176282.450386173</v>
+      </c>
+      <c r="M31" s="28" t="n">
+        <f aca="false">M30+M29</f>
+        <v>205973.280172669</v>
+      </c>
+      <c r="N31" s="28" t="n">
+        <f aca="false">N29+N30</f>
+        <v>205973.280172669</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3530,24 +3773,33 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="4" width="9.92"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3563,7 +3815,7 @@
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -3576,7 +3828,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
-      <c r="N3" s="25"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="10" t="n">
@@ -3617,8 +3869,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
-        <v>5</v>
+      <c r="A5" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="12" t="n">
         <v>45222</v>
@@ -3670,7 +3922,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -3687,7 +3939,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -3704,60 +3956,60 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B8" s="16" t="n">
-        <f aca="false">'Cash Flow Statement'!B32</f>
-        <v>23000</v>
+        <f aca="false">'Cash Flow Statement'!B31</f>
+        <v>30900</v>
       </c>
       <c r="C8" s="16" t="n">
-        <f aca="false">'Cash Flow Statement'!C32</f>
-        <v>16000</v>
+        <f aca="false">'Cash Flow Statement'!C31</f>
+        <v>5064.95</v>
       </c>
       <c r="D8" s="16" t="n">
-        <f aca="false">'Cash Flow Statement'!D32</f>
-        <v>35547</v>
+        <f aca="false">'Cash Flow Statement'!D31</f>
+        <v>27755.4016</v>
       </c>
       <c r="E8" s="16" t="n">
-        <f aca="false">'Cash Flow Statement'!E32</f>
-        <v>55094</v>
+        <f aca="false">'Cash Flow Statement'!E31</f>
+        <v>50357.2653288</v>
       </c>
       <c r="F8" s="16" t="n">
-        <f aca="false">'Cash Flow Statement'!F32</f>
-        <v>74641</v>
+        <f aca="false">'Cash Flow Statement'!F31</f>
+        <v>68185.6061407184</v>
       </c>
       <c r="G8" s="16" t="n">
-        <f aca="false">'Cash Flow Statement'!G32</f>
-        <v>94188</v>
+        <f aca="false">'Cash Flow Statement'!G31</f>
+        <v>85030.0310319073</v>
       </c>
       <c r="H8" s="16" t="n">
-        <f aca="false">'Cash Flow Statement'!H32</f>
-        <v>113735</v>
+        <f aca="false">'Cash Flow Statement'!H31</f>
+        <v>102475.661014248</v>
       </c>
       <c r="I8" s="16" t="n">
-        <f aca="false">'Cash Flow Statement'!I32</f>
-        <v>133282</v>
+        <f aca="false">'Cash Flow Statement'!I31</f>
+        <v>116957.363327764</v>
       </c>
       <c r="J8" s="16" t="n">
-        <f aca="false">'Cash Flow Statement'!J32</f>
-        <v>152829</v>
+        <f aca="false">'Cash Flow Statement'!J31</f>
+        <v>144432.744363025</v>
       </c>
       <c r="K8" s="16" t="n">
-        <f aca="false">'Cash Flow Statement'!K32</f>
-        <v>172376</v>
+        <f aca="false">'Cash Flow Statement'!K31</f>
+        <v>161462.403786707</v>
       </c>
       <c r="L8" s="16" t="n">
-        <f aca="false">'Cash Flow Statement'!L32</f>
-        <v>191923</v>
+        <f aca="false">'Cash Flow Statement'!L31</f>
+        <v>176282.450386173</v>
       </c>
       <c r="M8" s="16" t="n">
-        <f aca="false">'Cash Flow Statement'!M32</f>
-        <v>211470</v>
+        <f aca="false">'Cash Flow Statement'!M31</f>
+        <v>205973.280172669</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B9" s="16" t="n">
         <v>0</v>
@@ -3798,96 +4050,108 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B10" s="16" t="n">
+        <f aca="false">'Sales Sheet'!B19</f>
         <v>0</v>
       </c>
       <c r="C10" s="16" t="n">
-        <v>0</v>
+        <f aca="false">'Sales Sheet'!C19</f>
+        <v>16571.25</v>
       </c>
       <c r="D10" s="16" t="n">
-        <v>0</v>
+        <f aca="false">'Sales Sheet'!D19</f>
+        <v>12152.25</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0</v>
+        <f aca="false">'Sales Sheet'!E19</f>
+        <v>8926.38</v>
       </c>
       <c r="F10" s="16" t="n">
-        <v>0</v>
+        <f aca="false">'Sales Sheet'!F19</f>
+        <v>11634.13698</v>
       </c>
       <c r="G10" s="16" t="n">
-        <v>0</v>
+        <f aca="false">'Sales Sheet'!G19</f>
+        <v>16544.11728108</v>
       </c>
       <c r="H10" s="16" t="n">
-        <v>0</v>
+        <f aca="false">'Sales Sheet'!H19</f>
+        <v>22132.1676760097</v>
       </c>
       <c r="I10" s="16" t="n">
-        <v>0</v>
+        <f aca="false">'Sales Sheet'!I19</f>
+        <v>32027.2818891061</v>
       </c>
       <c r="J10" s="16" t="n">
-        <v>0</v>
+        <f aca="false">'Sales Sheet'!J19</f>
+        <v>30338.742356005</v>
       </c>
       <c r="K10" s="16" t="n">
-        <v>0</v>
+        <f aca="false">'Sales Sheet'!K19</f>
+        <v>40576.0070043812</v>
       </c>
       <c r="L10" s="16" t="n">
-        <v>0</v>
+        <f aca="false">'Sales Sheet'!L19</f>
+        <v>54576.3408265827</v>
       </c>
       <c r="M10" s="16" t="n">
-        <v>0</v>
+        <f aca="false">'Sales Sheet'!M19</f>
+        <v>55336.1920046055</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B11" s="16" t="n">
         <f aca="false">SUM(B8:B10)</f>
-        <v>23000</v>
+        <v>30900</v>
       </c>
       <c r="C11" s="16" t="n">
         <f aca="false">SUM(C8:C10)</f>
-        <v>16000</v>
+        <v>21636.2</v>
       </c>
       <c r="D11" s="16" t="n">
         <f aca="false">SUM(D8:D10)</f>
-        <v>35547</v>
+        <v>39907.6516</v>
       </c>
       <c r="E11" s="16" t="n">
         <f aca="false">SUM(E8:E10)</f>
-        <v>55094</v>
+        <v>59283.6453288</v>
       </c>
       <c r="F11" s="16" t="n">
         <f aca="false">SUM(F8:F10)</f>
-        <v>74641</v>
+        <v>79819.7431207184</v>
       </c>
       <c r="G11" s="16" t="n">
         <f aca="false">SUM(G8:G10)</f>
-        <v>94188</v>
+        <v>101574.148312987</v>
       </c>
       <c r="H11" s="16" t="n">
         <f aca="false">SUM(H8:H10)</f>
-        <v>113735</v>
+        <v>124607.828690258</v>
       </c>
       <c r="I11" s="16" t="n">
         <f aca="false">SUM(I8:I10)</f>
-        <v>133282</v>
+        <v>148984.64521687</v>
       </c>
       <c r="J11" s="16" t="n">
         <f aca="false">SUM(J8:J10)</f>
-        <v>152829</v>
+        <v>174771.48671903</v>
       </c>
       <c r="K11" s="16" t="n">
         <f aca="false">SUM(K8:K10)</f>
-        <v>172376</v>
+        <v>202038.410791089</v>
       </c>
       <c r="L11" s="16" t="n">
         <f aca="false">SUM(L8:L10)</f>
-        <v>191923</v>
+        <v>230858.791212756</v>
       </c>
       <c r="M11" s="16" t="n">
         <f aca="false">SUM(M8:M10)</f>
-        <v>211470</v>
+        <v>261309.472177274</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,7 +4171,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -3924,7 +4188,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B14" s="16" t="n">
         <v>0</v>
@@ -3965,7 +4229,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" s="16" t="n">
         <v>0</v>
@@ -4006,108 +4270,108 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="16" t="n">
-        <f aca="false">SUM(B14:B15)</f>
+        <f aca="false">B14-B15</f>
         <v>0</v>
       </c>
       <c r="C16" s="16" t="n">
-        <f aca="false">SUM(C14:C15)</f>
+        <f aca="false">C14-C15</f>
         <v>0</v>
       </c>
       <c r="D16" s="16" t="n">
-        <f aca="false">SUM(D14:D15)</f>
+        <f aca="false">D14-D15</f>
         <v>0</v>
       </c>
       <c r="E16" s="16" t="n">
-        <f aca="false">SUM(E14:E15)</f>
+        <f aca="false">E14-E15</f>
         <v>0</v>
       </c>
       <c r="F16" s="16" t="n">
-        <f aca="false">SUM(F14:F15)</f>
+        <f aca="false">F14-F15</f>
         <v>0</v>
       </c>
       <c r="G16" s="16" t="n">
-        <f aca="false">SUM(G14:G15)</f>
+        <f aca="false">G14-G15</f>
         <v>0</v>
       </c>
       <c r="H16" s="16" t="n">
-        <f aca="false">SUM(H14:H15)</f>
+        <f aca="false">H14-H15</f>
         <v>0</v>
       </c>
       <c r="I16" s="16" t="n">
-        <f aca="false">SUM(I14:I15)</f>
+        <f aca="false">I14-I15</f>
         <v>0</v>
       </c>
       <c r="J16" s="16" t="n">
-        <f aca="false">SUM(J14:J15)</f>
+        <f aca="false">J14-J15</f>
         <v>0</v>
       </c>
       <c r="K16" s="16" t="n">
-        <f aca="false">SUM(K14:K15)</f>
+        <f aca="false">K14-K15</f>
         <v>0</v>
       </c>
       <c r="L16" s="16" t="n">
-        <f aca="false">SUM(L14:L15)</f>
+        <f aca="false">L14-L15</f>
         <v>0</v>
       </c>
       <c r="M16" s="16" t="n">
-        <f aca="false">SUM(M14:M15)</f>
+        <f aca="false">M14-M15</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B17" s="16" t="n">
-        <f aca="false">B16+B11</f>
-        <v>23000</v>
+        <f aca="false">B11 + B16</f>
+        <v>30900</v>
       </c>
       <c r="C17" s="16" t="n">
-        <f aca="false">C16+C11</f>
-        <v>16000</v>
+        <f aca="false">C11 + C16</f>
+        <v>21636.2</v>
       </c>
       <c r="D17" s="16" t="n">
-        <f aca="false">D16+D11</f>
-        <v>35547</v>
+        <f aca="false">D11 + D16</f>
+        <v>39907.6516</v>
       </c>
       <c r="E17" s="16" t="n">
-        <f aca="false">E16+E11</f>
-        <v>55094</v>
+        <f aca="false">E11 + E16</f>
+        <v>59283.6453288</v>
       </c>
       <c r="F17" s="16" t="n">
-        <f aca="false">F16+F11</f>
-        <v>74641</v>
+        <f aca="false">F11 + F16</f>
+        <v>79819.7431207184</v>
       </c>
       <c r="G17" s="16" t="n">
-        <f aca="false">G16+G11</f>
-        <v>94188</v>
+        <f aca="false">G11 + G16</f>
+        <v>101574.148312987</v>
       </c>
       <c r="H17" s="16" t="n">
-        <f aca="false">H16+H11</f>
-        <v>113735</v>
+        <f aca="false">H11 + H16</f>
+        <v>124607.828690258</v>
       </c>
       <c r="I17" s="16" t="n">
-        <f aca="false">I16+I11</f>
-        <v>133282</v>
+        <f aca="false">I11 + I16</f>
+        <v>148984.64521687</v>
       </c>
       <c r="J17" s="16" t="n">
-        <f aca="false">J16+J11</f>
-        <v>152829</v>
+        <f aca="false">J11 + J16</f>
+        <v>174771.48671903</v>
       </c>
       <c r="K17" s="16" t="n">
-        <f aca="false">K16+K11</f>
-        <v>172376</v>
+        <f aca="false">K11 + K16</f>
+        <v>202038.410791089</v>
       </c>
       <c r="L17" s="16" t="n">
-        <f aca="false">L16+L11</f>
-        <v>191923</v>
+        <f aca="false">L11 + L16</f>
+        <v>230858.791212756</v>
       </c>
       <c r="M17" s="16" t="n">
-        <f aca="false">M16+M11</f>
-        <v>211470</v>
+        <f aca="false">M11 + M16</f>
+        <v>261309.472177274</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,7 +4391,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -4144,7 +4408,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -4161,60 +4425,60 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B21" s="16" t="n">
-        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!B12</f>
+        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!B11</f>
         <v>0</v>
       </c>
       <c r="C21" s="16" t="n">
-        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!C12</f>
+        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!C11</f>
         <v>0</v>
       </c>
       <c r="D21" s="16" t="n">
-        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!D12</f>
+        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!D11</f>
         <v>0</v>
       </c>
       <c r="E21" s="16" t="n">
-        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!E12</f>
+        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!E11</f>
         <v>0</v>
       </c>
       <c r="F21" s="16" t="n">
-        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!F12</f>
+        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!F11</f>
         <v>0</v>
       </c>
       <c r="G21" s="16" t="n">
-        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!G12</f>
+        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!G11</f>
         <v>0</v>
       </c>
       <c r="H21" s="16" t="n">
-        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!H12</f>
+        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!H11</f>
         <v>0</v>
       </c>
       <c r="I21" s="16" t="n">
-        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!I12</f>
+        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!I11</f>
         <v>0</v>
       </c>
       <c r="J21" s="16" t="n">
-        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!J12</f>
+        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!J11</f>
         <v>0</v>
       </c>
       <c r="K21" s="16" t="n">
-        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!K12</f>
+        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!K11</f>
         <v>0</v>
       </c>
       <c r="L21" s="16" t="n">
-        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!L12</f>
+        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!L11</f>
         <v>0</v>
       </c>
       <c r="M21" s="16" t="n">
-        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!M12</f>
+        <f aca="false">(1-'Sales Sheet'!$C$28)*'Income Statement'!M11</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B22" s="16" t="n">
         <v>0</v>
@@ -4255,7 +4519,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B23" s="16" t="n">
         <f aca="false">B22</f>
@@ -4308,47 +4572,54 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" s="16" t="n">
+        <f aca="false">B21+B23</f>
         <v>0</v>
       </c>
       <c r="C24" s="16" t="n">
+        <f aca="false">C21+C23</f>
         <v>0</v>
       </c>
       <c r="D24" s="16" t="n">
-        <f aca="false">D23+D18</f>
+        <f aca="false">D21+D23</f>
         <v>0</v>
       </c>
       <c r="E24" s="16" t="n">
+        <f aca="false">E21+E23</f>
         <v>0</v>
       </c>
       <c r="F24" s="16" t="n">
-        <f aca="false">F23+F18</f>
+        <f aca="false">F21+F23</f>
         <v>0</v>
       </c>
       <c r="G24" s="16" t="n">
+        <f aca="false">G21+G23</f>
         <v>0</v>
       </c>
       <c r="H24" s="16" t="n">
-        <f aca="false">H23+H18</f>
+        <f aca="false">H21+H23</f>
         <v>0</v>
       </c>
       <c r="I24" s="16" t="n">
+        <f aca="false">I21+I23</f>
         <v>0</v>
       </c>
       <c r="J24" s="16" t="n">
-        <f aca="false">J23+J18</f>
+        <f aca="false">J21+J23</f>
         <v>0</v>
       </c>
       <c r="K24" s="16" t="n">
+        <f aca="false">K21+K23</f>
         <v>0</v>
       </c>
       <c r="L24" s="16" t="n">
-        <f aca="false">L23+L18</f>
+        <f aca="false">L21+L23</f>
         <v>0</v>
       </c>
       <c r="M24" s="16" t="n">
+        <f aca="false">M21+M23</f>
         <v>0</v>
       </c>
     </row>
@@ -4369,7 +4640,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -4386,7 +4657,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B27" s="16" t="n">
         <v>0</v>
@@ -4427,136 +4698,160 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B28" s="16" t="n">
+        <f aca="false">B27</f>
         <v>0</v>
       </c>
       <c r="C28" s="16" t="n">
+        <f aca="false">C27</f>
         <v>0</v>
       </c>
       <c r="D28" s="16" t="n">
+        <f aca="false">D27</f>
         <v>0</v>
       </c>
       <c r="E28" s="16" t="n">
+        <f aca="false">E27</f>
         <v>0</v>
       </c>
       <c r="F28" s="16" t="n">
+        <f aca="false">F27</f>
         <v>0</v>
       </c>
       <c r="G28" s="16" t="n">
+        <f aca="false">G27</f>
         <v>0</v>
       </c>
       <c r="H28" s="16" t="n">
+        <f aca="false">H27</f>
         <v>0</v>
       </c>
       <c r="I28" s="16" t="n">
+        <f aca="false">I27</f>
         <v>0</v>
       </c>
       <c r="J28" s="16" t="n">
+        <f aca="false">J27</f>
         <v>0</v>
       </c>
       <c r="K28" s="16" t="n">
+        <f aca="false">K27</f>
         <v>0</v>
       </c>
       <c r="L28" s="16" t="n">
+        <f aca="false">L27</f>
         <v>0</v>
       </c>
       <c r="M28" s="16" t="n">
+        <f aca="false">M27</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B29" s="16" t="n">
+        <f aca="false">B28</f>
         <v>0</v>
       </c>
       <c r="C29" s="16" t="n">
+        <f aca="false">C28</f>
         <v>0</v>
       </c>
       <c r="D29" s="16" t="n">
+        <f aca="false">D28</f>
         <v>0</v>
       </c>
       <c r="E29" s="16" t="n">
+        <f aca="false">E28</f>
         <v>0</v>
       </c>
       <c r="F29" s="16" t="n">
+        <f aca="false">F28</f>
         <v>0</v>
       </c>
       <c r="G29" s="16" t="n">
+        <f aca="false">G28</f>
         <v>0</v>
       </c>
       <c r="H29" s="16" t="n">
+        <f aca="false">H28</f>
         <v>0</v>
       </c>
       <c r="I29" s="16" t="n">
+        <f aca="false">I28</f>
         <v>0</v>
       </c>
       <c r="J29" s="16" t="n">
+        <f aca="false">J28</f>
         <v>0</v>
       </c>
       <c r="K29" s="16" t="n">
+        <f aca="false">K28</f>
         <v>0</v>
       </c>
       <c r="L29" s="16" t="n">
+        <f aca="false">L28</f>
         <v>0</v>
       </c>
       <c r="M29" s="16" t="n">
+        <f aca="false">M28</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B30" s="16" t="n">
-        <f aca="false">B21+B23</f>
+        <f aca="false">B29+B24</f>
         <v>0</v>
       </c>
       <c r="C30" s="16" t="n">
-        <f aca="false">C21+C23</f>
+        <f aca="false">C29+C24</f>
         <v>0</v>
       </c>
       <c r="D30" s="16" t="n">
-        <f aca="false">D21+D23</f>
+        <f aca="false">D29+D24</f>
         <v>0</v>
       </c>
       <c r="E30" s="16" t="n">
-        <f aca="false">E21+E23</f>
+        <f aca="false">E29+E24</f>
         <v>0</v>
       </c>
       <c r="F30" s="16" t="n">
-        <f aca="false">F21+F23</f>
+        <f aca="false">F29+F24</f>
         <v>0</v>
       </c>
       <c r="G30" s="16" t="n">
-        <f aca="false">G21+G23</f>
+        <f aca="false">G29+G24</f>
         <v>0</v>
       </c>
       <c r="H30" s="16" t="n">
-        <f aca="false">H21+H23</f>
+        <f aca="false">H29+H24</f>
         <v>0</v>
       </c>
       <c r="I30" s="16" t="n">
-        <f aca="false">I21+I23</f>
+        <f aca="false">I29+I24</f>
         <v>0</v>
       </c>
       <c r="J30" s="16" t="n">
-        <f aca="false">J21+J23</f>
+        <f aca="false">J29+J24</f>
         <v>0</v>
       </c>
       <c r="K30" s="16" t="n">
-        <f aca="false">K21+K23</f>
+        <f aca="false">K29+K24</f>
         <v>0</v>
       </c>
       <c r="L30" s="16" t="n">
-        <f aca="false">L21+L23</f>
+        <f aca="false">L29+L24</f>
         <v>0</v>
       </c>
       <c r="M30" s="16" t="n">
-        <f aca="false">M21+M23</f>
+        <f aca="false">M29+M24</f>
         <v>0</v>
       </c>
     </row>
@@ -4577,161 +4872,161 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B32" s="16" t="n">
-        <f aca="false">'Cash Flow Statement'!B23</f>
-        <v>30000</v>
+        <f aca="false">'Cash Flow Statement'!B22</f>
+        <v>40000</v>
       </c>
       <c r="C32" s="16" t="n">
-        <f aca="false">B32+'Cash Flow Statement'!C23</f>
-        <v>30000</v>
+        <f aca="false">B32+'Cash Flow Statement'!C22</f>
+        <v>40000</v>
       </c>
       <c r="D32" s="16" t="n">
-        <f aca="false">C32+'Cash Flow Statement'!D23</f>
-        <v>30000</v>
+        <f aca="false">C32+'Cash Flow Statement'!D22</f>
+        <v>40000</v>
       </c>
       <c r="E32" s="16" t="n">
-        <f aca="false">D32+'Cash Flow Statement'!E23</f>
-        <v>30000</v>
+        <f aca="false">D32+'Cash Flow Statement'!E22</f>
+        <v>40000</v>
       </c>
       <c r="F32" s="16" t="n">
-        <f aca="false">E32+'Cash Flow Statement'!F23</f>
-        <v>30000</v>
+        <f aca="false">E32+'Cash Flow Statement'!F22</f>
+        <v>40000</v>
       </c>
       <c r="G32" s="16" t="n">
-        <f aca="false">F32+'Cash Flow Statement'!G23</f>
-        <v>30000</v>
+        <f aca="false">F32+'Cash Flow Statement'!G22</f>
+        <v>40000</v>
       </c>
       <c r="H32" s="16" t="n">
-        <f aca="false">G32+'Cash Flow Statement'!H23</f>
-        <v>30000</v>
+        <f aca="false">G32+'Cash Flow Statement'!H22</f>
+        <v>40000</v>
       </c>
       <c r="I32" s="16" t="n">
-        <f aca="false">H32+'Cash Flow Statement'!I23</f>
-        <v>30000</v>
+        <f aca="false">H32+'Cash Flow Statement'!I22</f>
+        <v>40000</v>
       </c>
       <c r="J32" s="16" t="n">
-        <f aca="false">I32+'Cash Flow Statement'!J23</f>
-        <v>30000</v>
+        <f aca="false">I32+'Cash Flow Statement'!J22</f>
+        <v>40000</v>
       </c>
       <c r="K32" s="16" t="n">
-        <f aca="false">J32+'Cash Flow Statement'!K23</f>
-        <v>30000</v>
+        <f aca="false">J32+'Cash Flow Statement'!K22</f>
+        <v>40000</v>
       </c>
       <c r="L32" s="16" t="n">
-        <f aca="false">K32+'Cash Flow Statement'!L23</f>
-        <v>30000</v>
+        <f aca="false">K32+'Cash Flow Statement'!L22</f>
+        <v>40000</v>
       </c>
       <c r="M32" s="16" t="n">
-        <f aca="false">L32+'Cash Flow Statement'!M23</f>
-        <v>30000</v>
+        <f aca="false">L32+'Cash Flow Statement'!M22</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B33" s="16" t="n">
-        <f aca="false">'Income Statement'!B20</f>
-        <v>-7000</v>
+        <f aca="false">'Income Statement'!B19</f>
+        <v>-9100</v>
       </c>
       <c r="C33" s="16" t="n">
-        <f aca="false">B33+'Income Statement'!C20</f>
-        <v>-14000</v>
+        <f aca="false">B33+'Income Statement'!C19</f>
+        <v>-18363.8</v>
       </c>
       <c r="D33" s="16" t="n">
-        <f aca="false">C33+'Income Statement'!D20</f>
-        <v>5547</v>
+        <f aca="false">C33+'Income Statement'!D19</f>
+        <v>-92.348399999999</v>
       </c>
       <c r="E33" s="16" t="n">
-        <f aca="false">D33+'Income Statement'!E20</f>
-        <v>25094</v>
+        <f aca="false">D33+'Income Statement'!E19</f>
+        <v>19283.6453288</v>
       </c>
       <c r="F33" s="16" t="n">
-        <f aca="false">E33+'Income Statement'!F20</f>
-        <v>44641</v>
+        <f aca="false">E33+'Income Statement'!F19</f>
+        <v>39819.7431207184</v>
       </c>
       <c r="G33" s="16" t="n">
-        <f aca="false">F33+'Income Statement'!G20</f>
-        <v>64188</v>
+        <f aca="false">F33+'Income Statement'!G19</f>
+        <v>61574.1483129873</v>
       </c>
       <c r="H33" s="16" t="n">
-        <f aca="false">G33+'Income Statement'!H20</f>
-        <v>83735</v>
+        <f aca="false">G33+'Income Statement'!H19</f>
+        <v>84607.8286902575</v>
       </c>
       <c r="I33" s="16" t="n">
-        <f aca="false">H33+'Income Statement'!I20</f>
-        <v>103282</v>
+        <f aca="false">H33+'Income Statement'!I19</f>
+        <v>108984.64521687</v>
       </c>
       <c r="J33" s="16" t="n">
-        <f aca="false">I33+'Income Statement'!J20</f>
-        <v>122829</v>
+        <f aca="false">I33+'Income Statement'!J19</f>
+        <v>134771.48671903</v>
       </c>
       <c r="K33" s="16" t="n">
-        <f aca="false">J33+'Income Statement'!K20</f>
-        <v>142376</v>
+        <f aca="false">J33+'Income Statement'!K19</f>
+        <v>162038.410791089</v>
       </c>
       <c r="L33" s="16" t="n">
-        <f aca="false">K33+'Income Statement'!L20</f>
-        <v>161923</v>
+        <f aca="false">K33+'Income Statement'!L19</f>
+        <v>190858.791212756</v>
       </c>
       <c r="M33" s="16" t="n">
-        <f aca="false">L33+'Income Statement'!M20</f>
-        <v>181470</v>
+        <f aca="false">L33+'Income Statement'!M19</f>
+        <v>221309.472177274</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B34" s="16" t="n">
         <f aca="false">B33+B32</f>
-        <v>23000</v>
+        <v>30900</v>
       </c>
       <c r="C34" s="16" t="n">
         <f aca="false">C33+C32</f>
-        <v>16000</v>
+        <v>21636.2</v>
       </c>
       <c r="D34" s="16" t="n">
         <f aca="false">D33+D32</f>
-        <v>35547</v>
+        <v>39907.6516</v>
       </c>
       <c r="E34" s="16" t="n">
         <f aca="false">E33+E32</f>
-        <v>55094</v>
+        <v>59283.6453288</v>
       </c>
       <c r="F34" s="16" t="n">
         <f aca="false">F33+F32</f>
-        <v>74641</v>
+        <v>79819.7431207184</v>
       </c>
       <c r="G34" s="16" t="n">
         <f aca="false">G33+G32</f>
-        <v>94188</v>
+        <v>101574.148312987</v>
       </c>
       <c r="H34" s="16" t="n">
         <f aca="false">H33+H32</f>
-        <v>113735</v>
+        <v>124607.828690258</v>
       </c>
       <c r="I34" s="16" t="n">
         <f aca="false">I33+I32</f>
-        <v>133282</v>
+        <v>148984.64521687</v>
       </c>
       <c r="J34" s="16" t="n">
         <f aca="false">J33+J32</f>
-        <v>152829</v>
+        <v>174771.48671903</v>
       </c>
       <c r="K34" s="16" t="n">
         <f aca="false">K33+K32</f>
-        <v>172376</v>
+        <v>202038.410791089</v>
       </c>
       <c r="L34" s="16" t="n">
         <f aca="false">L33+L32</f>
-        <v>191923</v>
+        <v>230858.791212756</v>
       </c>
       <c r="M34" s="16" t="n">
         <f aca="false">M33+M32</f>
-        <v>211470</v>
+        <v>261309.472177274</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4751,55 +5046,55 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B36" s="16" t="n">
         <f aca="false">B34+B30</f>
-        <v>23000</v>
+        <v>30900</v>
       </c>
       <c r="C36" s="16" t="n">
         <f aca="false">C34+C30</f>
-        <v>16000</v>
+        <v>21636.2</v>
       </c>
       <c r="D36" s="16" t="n">
         <f aca="false">D34+D30</f>
-        <v>35547</v>
+        <v>39907.6516</v>
       </c>
       <c r="E36" s="16" t="n">
         <f aca="false">E34+E30</f>
-        <v>55094</v>
+        <v>59283.6453288</v>
       </c>
       <c r="F36" s="16" t="n">
         <f aca="false">F34+F30</f>
-        <v>74641</v>
+        <v>79819.7431207184</v>
       </c>
       <c r="G36" s="16" t="n">
         <f aca="false">G34+G30</f>
-        <v>94188</v>
+        <v>101574.148312987</v>
       </c>
       <c r="H36" s="16" t="n">
         <f aca="false">H34+H30</f>
-        <v>113735</v>
+        <v>124607.828690258</v>
       </c>
       <c r="I36" s="16" t="n">
         <f aca="false">I34+I30</f>
-        <v>133282</v>
+        <v>148984.64521687</v>
       </c>
       <c r="J36" s="16" t="n">
         <f aca="false">J34+J30</f>
-        <v>152829</v>
+        <v>174771.48671903</v>
       </c>
       <c r="K36" s="16" t="n">
         <f aca="false">K34+K30</f>
-        <v>172376</v>
+        <v>202038.410791089</v>
       </c>
       <c r="L36" s="16" t="n">
         <f aca="false">L34+L30</f>
-        <v>191923</v>
+        <v>230858.791212756</v>
       </c>
       <c r="M36" s="16" t="n">
         <f aca="false">M34+M30</f>
-        <v>211470</v>
+        <v>261309.472177274</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,8 +5126,8 @@
       <c r="M38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="28" t="s">
-        <v>97</v>
+      <c r="A39" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -4863,7 +5158,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B41" s="16" t="n">
         <f aca="false">B17-B36</f>
@@ -4916,10 +5211,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
